--- a/cbrunner/Parameters/Parameters_Events.xlsx
+++ b/cbrunner/Parameters/Parameters_Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8A6CCA-D8E7-4871-9866-1651A94B01A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1757E48B-7E0A-4BD7-B377-0F59406E0F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="18240" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="12220" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -791,21 +791,21 @@
   <dimension ref="A1:BG47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="49" width="10.28515625" style="13" customWidth="1"/>
-    <col min="57" max="59" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="49" width="10.33203125" style="13" customWidth="1"/>
+    <col min="57" max="59" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -984,7 +984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f>A15+1</f>
         <v>15</v>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ref="A17:A35" si="21">A16+1</f>
         <v>16</v>
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="21"/>
         <v>18</v>
@@ -4346,7 +4346,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="21"/>
         <v>19</v>
@@ -4533,7 +4533,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="21"/>
         <v>20</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="21"/>
         <v>21</v>
@@ -4830,12 +4830,24 @@
       <c r="AJ22" s="12">
         <v>0</v>
       </c>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
+      <c r="AK22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>0</v>
+      </c>
       <c r="AQ22" s="12">
         <v>0</v>
       </c>
@@ -4895,7 +4907,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="21"/>
         <v>22</v>
@@ -5005,12 +5017,24 @@
       <c r="AJ23" s="12">
         <v>0</v>
       </c>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
+      <c r="AK23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="12">
+        <v>0</v>
+      </c>
       <c r="AQ23" s="12">
         <v>0</v>
       </c>
@@ -5070,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="21"/>
         <v>23</v>
@@ -5180,12 +5204,24 @@
       <c r="AJ24" s="12">
         <v>0</v>
       </c>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
-      <c r="AN24" s="12"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
+      <c r="AK24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="12">
+        <v>0</v>
+      </c>
       <c r="AQ24" s="12">
         <v>0</v>
       </c>
@@ -5245,7 +5281,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="21"/>
         <v>24</v>
@@ -5355,12 +5391,24 @@
       <c r="AJ25" s="12">
         <v>0</v>
       </c>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
-      <c r="AN25" s="12"/>
-      <c r="AO25" s="12"/>
-      <c r="AP25" s="12"/>
+      <c r="AK25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>0</v>
+      </c>
       <c r="AQ25" s="12">
         <v>0</v>
       </c>
@@ -5420,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="21"/>
         <v>25</v>
@@ -5607,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="21"/>
         <v>26</v>
@@ -5794,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="21"/>
         <v>27</v>
@@ -5981,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="21"/>
         <v>28</v>
@@ -6168,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="21"/>
         <v>29</v>
@@ -6355,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="21"/>
         <v>30</v>
@@ -6542,7 +6590,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="21"/>
         <v>31</v>
@@ -6729,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="21"/>
         <v>32</v>
@@ -6916,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="21"/>
         <v>33</v>
@@ -7103,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="21"/>
         <v>34</v>
@@ -7290,9 +7338,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f>A35+1</f>
+        <f t="shared" ref="A36:A41" si="51">A35+1</f>
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -7448,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <f t="shared" ref="AZ36" si="51">SUM(AF36:AJ36)</f>
+        <f t="shared" ref="AZ36" si="52">SUM(AF36:AJ36)</f>
         <v>0</v>
       </c>
       <c r="BA36" s="1">
@@ -7477,9 +7525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f>A36+1</f>
+        <f t="shared" si="51"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -7635,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <f t="shared" ref="AZ37:AZ38" si="52">SUM(AF37:AJ37)</f>
+        <f t="shared" ref="AZ37:AZ38" si="53">SUM(AF37:AJ37)</f>
         <v>0</v>
       </c>
       <c r="BA37" s="1">
@@ -7664,9 +7712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f>A37+1</f>
+        <f t="shared" si="51"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -7828,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="AZ38" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="BA38" s="1">
@@ -7857,9 +7905,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f>A38+1</f>
+        <f t="shared" si="51"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -8015,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="AZ39" s="1">
-        <f t="shared" ref="AZ39:AZ40" si="53">SUM(AF39:AJ39)</f>
+        <f t="shared" ref="AZ39:AZ40" si="54">SUM(AF39:AJ39)</f>
         <v>1</v>
       </c>
       <c r="BA39" s="1">
@@ -8044,9 +8092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>A39+1</f>
+        <f t="shared" si="51"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -8194,31 +8242,31 @@
         <v>0</v>
       </c>
       <c r="AX40" s="1">
-        <f t="shared" ref="AX40" si="54">SUM(C40:G40)</f>
+        <f t="shared" ref="AX40" si="55">SUM(C40:G40)</f>
         <v>0</v>
       </c>
       <c r="AY40" s="1">
-        <f t="shared" ref="AY40" si="55">SUM(H40:L40)</f>
+        <f t="shared" ref="AY40" si="56">SUM(H40:L40)</f>
         <v>0</v>
       </c>
       <c r="AZ40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <f t="shared" ref="BA40" si="56">SUM(Q40:U40)</f>
+        <f t="shared" ref="BA40" si="57">SUM(Q40:U40)</f>
         <v>0</v>
       </c>
       <c r="BB40" s="1">
-        <f t="shared" ref="BB40" si="57">SUM(V40:Z40)</f>
+        <f t="shared" ref="BB40" si="58">SUM(V40:Z40)</f>
         <v>0</v>
       </c>
       <c r="BC40" s="1">
-        <f t="shared" ref="BC40" si="58">SUM(AF40:AJ40)</f>
+        <f t="shared" ref="BC40" si="59">SUM(AF40:AJ40)</f>
         <v>0</v>
       </c>
       <c r="BD40" s="1">
-        <f t="shared" ref="BD40" si="59">SUM(AK40:AP40)</f>
+        <f t="shared" ref="BD40" si="60">SUM(AK40:AP40)</f>
         <v>0</v>
       </c>
       <c r="BE40" s="1">
@@ -8231,9 +8279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f>A40+1</f>
+        <f t="shared" si="51"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -8381,31 +8429,31 @@
         <v>0</v>
       </c>
       <c r="AX41" s="1">
-        <f t="shared" ref="AX41" si="60">SUM(C41:G41)</f>
+        <f t="shared" ref="AX41" si="61">SUM(C41:G41)</f>
         <v>0</v>
       </c>
       <c r="AY41" s="1">
-        <f t="shared" ref="AY41" si="61">SUM(H41:L41)</f>
+        <f t="shared" ref="AY41" si="62">SUM(H41:L41)</f>
         <v>0</v>
       </c>
       <c r="AZ41" s="1">
-        <f t="shared" ref="AZ41" si="62">SUM(AF41:AJ41)</f>
+        <f t="shared" ref="AZ41" si="63">SUM(AF41:AJ41)</f>
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <f t="shared" ref="BA41" si="63">SUM(Q41:U41)</f>
+        <f t="shared" ref="BA41" si="64">SUM(Q41:U41)</f>
         <v>0</v>
       </c>
       <c r="BB41" s="1">
-        <f t="shared" ref="BB41" si="64">SUM(V41:Z41)</f>
+        <f t="shared" ref="BB41" si="65">SUM(V41:Z41)</f>
         <v>0</v>
       </c>
       <c r="BC41" s="1">
-        <f t="shared" ref="BC41" si="65">SUM(AF41:AJ41)</f>
+        <f t="shared" ref="BC41" si="66">SUM(AF41:AJ41)</f>
         <v>0</v>
       </c>
       <c r="BD41" s="1">
-        <f t="shared" ref="BD41" si="66">SUM(AK41:AP41)</f>
+        <f t="shared" ref="BD41" si="67">SUM(AK41:AP41)</f>
         <v>0</v>
       </c>
       <c r="BE41" s="1">
@@ -8418,22 +8466,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_Events.xlsx
+++ b/cbrunner/Parameters/Parameters_Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1757E48B-7E0A-4BD7-B377-0F59406E0F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF27B8-0816-4D9B-8A53-334C0FC33D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="12220" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Wildfire</t>
   </si>
@@ -56,9 +56,6 @@
     <t>QA3</t>
   </si>
   <si>
-    <t>Fertilization Aerial</t>
-  </si>
-  <si>
     <t>Prescribed Burn</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Knockdown</t>
   </si>
   <si>
-    <t>Harvest Salvage</t>
-  </si>
-  <si>
     <t>Regen Failure</t>
   </si>
   <si>
@@ -330,6 +324,9 @@
   </si>
   <si>
     <t>FL-ND</t>
+  </si>
+  <si>
+    <t>Nutrient App Aerial</t>
   </si>
 </sst>
 </file>
@@ -339,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +354,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -469,6 +474,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +499,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -532,7 +544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -638,7 +650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -780,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
-  <dimension ref="A1:BG47"/>
+  <dimension ref="A1:BG46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,145 +825,145 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="V1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="AL1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="9" t="s">
+      <c r="AM1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AR1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AS1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="AV1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW1" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="AX1" s="4" t="s">
         <v>4</v>
@@ -963,25 +975,25 @@
         <v>6</v>
       </c>
       <c r="BA1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
@@ -1135,11 +1147,11 @@
         <v>0</v>
       </c>
       <c r="AX2" s="1">
-        <f t="shared" ref="AX2:AX31" si="0">SUM(C2:G2)</f>
+        <f t="shared" ref="AX2:AX30" si="0">SUM(C2:G2)</f>
         <v>1</v>
       </c>
       <c r="AY2" s="1">
-        <f t="shared" ref="AY2:AY31" si="1">SUM(H2:L2)</f>
+        <f t="shared" ref="AY2:AY30" si="1">SUM(H2:L2)</f>
         <v>1</v>
       </c>
       <c r="AZ2" s="1">
@@ -1177,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
@@ -1363,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="12">
         <v>0</v>
@@ -1519,19 +1531,19 @@
         <v>1</v>
       </c>
       <c r="BA4" s="1">
-        <f t="shared" ref="BA4:BA31" si="3">SUM(Q4:U4)</f>
+        <f t="shared" ref="BA4:BA30" si="3">SUM(Q4:U4)</f>
         <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <f t="shared" ref="BB4:BB31" si="4">SUM(V4:Z4)</f>
+        <f t="shared" ref="BB4:BB30" si="4">SUM(V4:Z4)</f>
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <f t="shared" ref="BC4:BC31" si="5">SUM(AF4:AJ4)</f>
+        <f t="shared" ref="BC4:BC30" si="5">SUM(AF4:AJ4)</f>
         <v>1</v>
       </c>
       <c r="BD4" s="1">
-        <f t="shared" ref="BD4:BD31" si="6">SUM(AK4:AP4)</f>
+        <f t="shared" ref="BD4:BD30" si="6">SUM(AK4:AP4)</f>
         <v>0</v>
       </c>
       <c r="BE4" s="1">
@@ -1549,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -1735,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -1921,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
@@ -2107,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -2293,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
@@ -2479,7 +2491,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="12">
         <v>0</v>
@@ -2665,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="12">
         <v>0</v>
@@ -2851,7 +2863,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="12">
         <v>0</v>
@@ -3037,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="12">
         <v>0</v>
@@ -3223,7 +3235,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12">
         <v>0</v>
@@ -3409,7 +3421,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="12">
         <v>0</v>
@@ -3596,164 +3608,160 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0.88</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <f>0.4*0.12</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F16" s="12">
-        <f>0.6*0.12</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16" s="12">
-        <v>1</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>0</v>
-      </c>
-      <c r="R16" s="12">
-        <v>0</v>
-      </c>
-      <c r="S16" s="12">
-        <v>0</v>
-      </c>
-      <c r="T16" s="12">
-        <v>0</v>
-      </c>
-      <c r="U16" s="12">
-        <v>0</v>
-      </c>
-      <c r="V16" s="12">
-        <v>0</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0</v>
-      </c>
-      <c r="X16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>0.88</v>
-      </c>
-      <c r="AB16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="12">
-        <f>0.4*0.12</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AD16" s="12">
-        <f>0.6*0.12</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="AI16" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="AJ16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="12">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="14">
         <v>0</v>
       </c>
       <c r="AX16" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="1">
         <f t="shared" ref="AZ16" si="20">SUM(AF16:AJ16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="1">
         <f t="shared" si="3"/>
@@ -3765,7 +3773,7 @@
       </c>
       <c r="BC16" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <f t="shared" si="6"/>
@@ -3783,25 +3791,23 @@
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" ref="A17:A35" si="21">A16+1</f>
+        <f t="shared" ref="A17:A40" si="21">A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" s="12">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <f>0.4*0.12</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
-        <f>0.6*0.12</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
         <v>0</v>
@@ -3813,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K17" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
@@ -3864,18 +3870,16 @@
         <v>0</v>
       </c>
       <c r="AA17" s="12">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="12">
         <v>0</v>
       </c>
       <c r="AC17" s="12">
-        <f>0.4*0.12</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="12">
-        <f>0.6*0.12</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="12">
         <v>0</v>
@@ -3887,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="AH17" s="12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="12">
         <v>0</v>
@@ -3936,15 +3940,15 @@
       </c>
       <c r="AX17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="1">
         <f>SUM(AF17:AJ17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="1">
         <f t="shared" si="3"/>
@@ -3956,17 +3960,17 @@
       </c>
       <c r="BC17" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="BF17" s="1">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BG17" s="1">
         <v>1</v>
@@ -3978,7 +3982,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" s="12">
         <v>0</v>
@@ -3987,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F18" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
@@ -4002,10 +4006,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K18" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>
@@ -4059,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD18" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE18" s="12">
         <v>0</v>
@@ -4074,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="AH18" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AI18" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AJ18" s="12">
         <v>0</v>
@@ -4123,15 +4127,15 @@
       </c>
       <c r="AX18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="1">
         <f>SUM(AF18:AJ18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="1">
         <f t="shared" si="3"/>
@@ -4143,20 +4147,20 @@
       </c>
       <c r="BC18" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="BF18" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="BG18" s="1">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
@@ -4165,7 +4169,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="12">
         <v>0</v>
@@ -4174,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12">
         <v>0</v>
@@ -4189,10 +4193,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K19" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>
@@ -4204,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="12">
         <v>0</v>
@@ -4246,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="12">
         <v>0</v>
@@ -4261,31 +4265,31 @@
         <v>0</v>
       </c>
       <c r="AH19" s="12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="12">
         <v>0</v>
       </c>
       <c r="AK19" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AL19" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AM19" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AN19" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AO19" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AP19" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AQ19" s="12">
         <v>0</v>
@@ -4310,15 +4314,15 @@
       </c>
       <c r="AX19" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="1">
         <f>SUM(AF19:AJ19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="1">
         <f t="shared" si="3"/>
@@ -4330,20 +4334,20 @@
       </c>
       <c r="BC19" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="1">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="BG19" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
@@ -4352,13 +4356,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
       </c>
       <c r="D20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="12">
         <v>0</v>
@@ -4373,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
@@ -4430,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="12">
         <v>0</v>
@@ -4445,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="12">
         <v>0</v>
@@ -4457,55 +4461,55 @@
         <v>0</v>
       </c>
       <c r="AK20" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AS20" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT20" s="12">
         <v>0</v>
       </c>
       <c r="AU20" s="12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AV20" s="12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AW20" s="12">
         <v>0</v>
       </c>
       <c r="AX20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="1">
-        <f>SUM(AF20:AJ20)</f>
-        <v>0</v>
+        <f t="shared" ref="AZ20" si="22">SUM(AF20:AJ20)</f>
+        <v>1</v>
       </c>
       <c r="BA20" s="1">
         <f t="shared" si="3"/>
@@ -4517,20 +4521,20 @@
       </c>
       <c r="BC20" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="1">
         <f t="shared" si="6"/>
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BF20" s="1">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
@@ -4539,13 +4543,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C21" s="12">
         <v>0</v>
       </c>
       <c r="D21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
@@ -4560,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
@@ -4617,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="12">
         <v>0</v>
@@ -4632,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="12">
         <v>0</v>
@@ -4662,37 +4666,37 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="12">
         <v>0</v>
       </c>
       <c r="AU21" s="12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="12">
         <v>0</v>
       </c>
       <c r="AX21" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="1">
-        <f t="shared" ref="AZ21" si="22">SUM(AF21:AJ21)</f>
-        <v>1</v>
+        <f t="shared" ref="AZ21:AZ25" si="23">SUM(AF21:AJ21)</f>
+        <v>0</v>
       </c>
       <c r="BA21" s="1">
         <f t="shared" si="3"/>
@@ -4704,20 +4708,20 @@
       </c>
       <c r="BC21" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="BF21" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BG21" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
@@ -4726,7 +4730,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C22" s="12">
         <v>0</v>
@@ -4878,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="AZ22" s="1">
-        <f t="shared" ref="AZ22:AZ26" si="23">SUM(AF22:AJ22)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BA22" s="1">
@@ -4898,13 +4902,13 @@
         <v>0</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="1">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="BG22" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
@@ -4913,7 +4917,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C23" s="12">
         <v>0</v>
@@ -5085,13 +5089,13 @@
         <v>0</v>
       </c>
       <c r="BE23" s="1">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="BF23" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="1">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
@@ -5100,7 +5104,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -5272,13 +5276,13 @@
         <v>0</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="BF24" s="1">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BG24" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
@@ -5287,7 +5291,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -5459,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="BF25" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="BG25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.3">
@@ -5483,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="12">
         <v>0</v>
@@ -5498,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="12">
         <v>0</v>
@@ -5555,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="12">
         <v>0</v>
@@ -5570,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="12">
         <v>0</v>
@@ -5619,15 +5623,15 @@
       </c>
       <c r="AX26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" ref="AZ26" si="24">SUM(AF26:AJ26)</f>
+        <v>1</v>
       </c>
       <c r="BA26" s="1">
         <f t="shared" si="3"/>
@@ -5639,17 +5643,17 @@
       </c>
       <c r="BC26" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD26" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="1">
         <v>0</v>
@@ -5661,7 +5665,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12">
         <v>0</v>
@@ -5670,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -5685,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="12">
         <v>0</v>
@@ -5742,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="12">
         <v>0</v>
@@ -5757,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="12">
         <v>0</v>
@@ -5806,15 +5810,15 @@
       </c>
       <c r="AX27" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" ref="AZ27" si="24">SUM(AF27:AJ27)</f>
-        <v>1</v>
+        <f>SUM(AF27:AJ27)</f>
+        <v>0</v>
       </c>
       <c r="BA27" s="1">
         <f t="shared" si="3"/>
@@ -5826,7 +5830,7 @@
       </c>
       <c r="BC27" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="1">
         <f t="shared" si="6"/>
@@ -5848,10 +5852,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C28" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -5860,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="12">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G28" s="12">
         <v>0</v>
@@ -5875,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="12">
         <v>0</v>
@@ -5890,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="12">
         <v>0</v>
@@ -5902,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="12">
         <v>0</v>
@@ -5917,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="Y28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="12">
         <v>0</v>
       </c>
       <c r="AA28" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AB28" s="12">
         <v>0</v>
@@ -5932,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="12">
         <v>0</v>
@@ -5947,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="12">
         <v>0</v>
@@ -5993,27 +5997,27 @@
       </c>
       <c r="AX28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28" s="1">
-        <f>SUM(AF28:AJ28)</f>
-        <v>0</v>
+        <f t="shared" ref="AZ28" si="25">SUM(AF28:AJ28)</f>
+        <v>1</v>
       </c>
       <c r="BA28" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD28" s="1">
         <f t="shared" si="6"/>
@@ -6023,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="BF28" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BG28" s="1">
         <v>0</v>
@@ -6035,7 +6039,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="12">
         <v>0.88</v>
@@ -6179,38 +6183,38 @@
         <v>0</v>
       </c>
       <c r="AX29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AX29" si="26">SUM(C29:G29)</f>
         <v>1</v>
       </c>
       <c r="AY29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AY29" si="27">SUM(H29:L29)</f>
         <v>1</v>
       </c>
       <c r="AZ29" s="1">
-        <f t="shared" ref="AZ29" si="25">SUM(AF29:AJ29)</f>
+        <f t="shared" ref="AZ29" si="28">SUM(AF29:AJ29)</f>
         <v>1</v>
       </c>
       <c r="BA29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="BA29" si="29">SUM(Q29:U29)</f>
         <v>1</v>
       </c>
       <c r="BB29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="BB29" si="30">SUM(V29:Z29)</f>
         <v>1</v>
       </c>
       <c r="BC29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="BC29" si="31">SUM(AF29:AJ29)</f>
         <v>1</v>
       </c>
       <c r="BD29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="BD29" si="32">SUM(AK29:AP29)</f>
         <v>0</v>
       </c>
       <c r="BE29" s="1">
         <v>0</v>
       </c>
       <c r="BF29" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="BG29" s="1">
         <v>0</v>
@@ -6222,7 +6226,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="12">
         <v>0.88</v>
@@ -6366,41 +6370,41 @@
         <v>0</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" ref="AX30" si="26">SUM(C30:G30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" ref="AY30" si="27">SUM(H30:L30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ30" s="1">
-        <f t="shared" ref="AZ30" si="28">SUM(AF30:AJ30)</f>
+        <f>SUM(AF30:AJ30)</f>
         <v>1</v>
       </c>
       <c r="BA30" s="1">
-        <f t="shared" ref="BA30" si="29">SUM(Q30:U30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BB30" s="1">
-        <f t="shared" ref="BB30" si="30">SUM(V30:Z30)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BC30" s="1">
-        <f t="shared" ref="BC30" si="31">SUM(AF30:AJ30)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BD30" s="1">
-        <f t="shared" ref="BD30" si="32">SUM(AK30:AP30)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE30" s="1">
         <v>0</v>
       </c>
       <c r="BF30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BG30" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.3">
@@ -6409,7 +6413,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="12">
         <v>0.88</v>
@@ -6553,11 +6557,11 @@
         <v>0</v>
       </c>
       <c r="AX31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AX31" si="33">SUM(C31:G31)</f>
         <v>1</v>
       </c>
       <c r="AY31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AY31" si="34">SUM(H31:L31)</f>
         <v>1</v>
       </c>
       <c r="AZ31" s="1">
@@ -6565,29 +6569,29 @@
         <v>1</v>
       </c>
       <c r="BA31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="BA31" si="35">SUM(Q31:U31)</f>
         <v>1</v>
       </c>
       <c r="BB31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="BB31" si="36">SUM(V31:Z31)</f>
         <v>1</v>
       </c>
       <c r="BC31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="BC31" si="37">SUM(AF31:AJ31)</f>
         <v>1</v>
       </c>
       <c r="BD31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="BD31" si="38">SUM(AK31:AP31)</f>
         <v>0</v>
       </c>
       <c r="BE31" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BF31" s="1">
         <v>0</v>
       </c>
       <c r="BG31" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.3">
@@ -6596,7 +6600,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="12">
         <v>0.88</v>
@@ -6740,11 +6744,11 @@
         <v>0</v>
       </c>
       <c r="AX32" s="1">
-        <f t="shared" ref="AX32" si="33">SUM(C32:G32)</f>
+        <f t="shared" ref="AX32" si="39">SUM(C32:G32)</f>
         <v>1</v>
       </c>
       <c r="AY32" s="1">
-        <f t="shared" ref="AY32" si="34">SUM(H32:L32)</f>
+        <f t="shared" ref="AY32" si="40">SUM(H32:L32)</f>
         <v>1</v>
       </c>
       <c r="AZ32" s="1">
@@ -6752,19 +6756,19 @@
         <v>1</v>
       </c>
       <c r="BA32" s="1">
-        <f t="shared" ref="BA32" si="35">SUM(Q32:U32)</f>
+        <f t="shared" ref="BA32" si="41">SUM(Q32:U32)</f>
         <v>1</v>
       </c>
       <c r="BB32" s="1">
-        <f t="shared" ref="BB32" si="36">SUM(V32:Z32)</f>
+        <f t="shared" ref="BB32" si="42">SUM(V32:Z32)</f>
         <v>1</v>
       </c>
       <c r="BC32" s="1">
-        <f t="shared" ref="BC32" si="37">SUM(AF32:AJ32)</f>
+        <f t="shared" ref="BC32" si="43">SUM(AF32:AJ32)</f>
         <v>1</v>
       </c>
       <c r="BD32" s="1">
-        <f t="shared" ref="BD32" si="38">SUM(AK32:AP32)</f>
+        <f t="shared" ref="BD32" si="44">SUM(AK32:AP32)</f>
         <v>0</v>
       </c>
       <c r="BE32" s="1">
@@ -6783,7 +6787,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="12">
         <v>0.88</v>
@@ -6927,11 +6931,11 @@
         <v>0</v>
       </c>
       <c r="AX33" s="1">
-        <f t="shared" ref="AX33" si="39">SUM(C33:G33)</f>
+        <f t="shared" ref="AX33:AX34" si="45">SUM(C33:G33)</f>
         <v>1</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" ref="AY33" si="40">SUM(H33:L33)</f>
+        <f t="shared" ref="AY33:AY34" si="46">SUM(H33:L33)</f>
         <v>1</v>
       </c>
       <c r="AZ33" s="1">
@@ -6939,19 +6943,19 @@
         <v>1</v>
       </c>
       <c r="BA33" s="1">
-        <f t="shared" ref="BA33" si="41">SUM(Q33:U33)</f>
+        <f t="shared" ref="BA33:BA34" si="47">SUM(Q33:U33)</f>
         <v>1</v>
       </c>
       <c r="BB33" s="1">
-        <f t="shared" ref="BB33" si="42">SUM(V33:Z33)</f>
+        <f t="shared" ref="BB33:BB34" si="48">SUM(V33:Z33)</f>
         <v>1</v>
       </c>
       <c r="BC33" s="1">
-        <f t="shared" ref="BC33" si="43">SUM(AF33:AJ33)</f>
+        <f t="shared" ref="BC33:BC34" si="49">SUM(AF33:AJ33)</f>
         <v>1</v>
       </c>
       <c r="BD33" s="1">
-        <f t="shared" ref="BD33" si="44">SUM(AK33:AP33)</f>
+        <f t="shared" ref="BD33:BD34" si="50">SUM(AK33:AP33)</f>
         <v>0</v>
       </c>
       <c r="BE33" s="1">
@@ -6970,7 +6974,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="12">
         <v>0.88</v>
@@ -7114,11 +7118,11 @@
         <v>0</v>
       </c>
       <c r="AX34" s="1">
-        <f t="shared" ref="AX34:AX35" si="45">SUM(C34:G34)</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AY34" s="1">
-        <f t="shared" ref="AY34:AY35" si="46">SUM(H34:L34)</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AZ34" s="1">
@@ -7126,19 +7130,19 @@
         <v>1</v>
       </c>
       <c r="BA34" s="1">
-        <f t="shared" ref="BA34:BA35" si="47">SUM(Q34:U34)</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BB34" s="1">
-        <f t="shared" ref="BB34:BB35" si="48">SUM(V34:Z34)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="BC34" s="1">
-        <f t="shared" ref="BC34:BC35" si="49">SUM(AF34:AJ34)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="BD34" s="1">
-        <f t="shared" ref="BD34:BD35" si="50">SUM(AK34:AP34)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="BE34" s="1">
@@ -7157,10 +7161,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C35" s="12">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="D35" s="12">
         <v>0</v>
@@ -7169,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="12">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G35" s="12">
         <v>0</v>
@@ -7184,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="12">
         <v>0</v>
@@ -7199,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="12">
         <v>0</v>
@@ -7211,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="12">
         <v>0</v>
@@ -7226,13 +7230,13 @@
         <v>0</v>
       </c>
       <c r="Y35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="12">
         <v>0</v>
       </c>
       <c r="AA35" s="12">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="12">
         <v>0</v>
@@ -7241,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="12">
         <v>0</v>
@@ -7256,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="12">
         <v>0</v>
@@ -7301,35 +7305,35 @@
         <v>0</v>
       </c>
       <c r="AX35" s="1">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f>SUM(C35:G35)</f>
+        <v>0</v>
       </c>
       <c r="AY35" s="1">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f>SUM(H35:L35)</f>
+        <v>0</v>
       </c>
       <c r="AZ35" s="1">
+        <f t="shared" ref="AZ35" si="51">SUM(AF35:AJ35)</f>
+        <v>0</v>
+      </c>
+      <c r="BA35" s="1">
+        <f>SUM(Q35:U35)</f>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="1">
+        <f>SUM(V35:Z35)</f>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="1">
         <f>SUM(AF35:AJ35)</f>
-        <v>1</v>
-      </c>
-      <c r="BA35" s="1">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="BB35" s="1">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="BC35" s="1">
-        <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="1">
-        <f t="shared" si="50"/>
+        <f>SUM(AK35:AP35)</f>
         <v>0</v>
       </c>
       <c r="BE35" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="1">
         <v>0</v>
@@ -7340,11 +7344,11 @@
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" ref="A36:A41" si="51">A35+1</f>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="12">
         <v>0</v>
@@ -7496,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <f t="shared" ref="AZ36" si="52">SUM(AF36:AJ36)</f>
+        <f t="shared" ref="AZ36:AZ37" si="52">SUM(AF36:AJ36)</f>
         <v>0</v>
       </c>
       <c r="BA36" s="1">
@@ -7527,23 +7531,25 @@
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="D37" s="12">
         <v>0</v>
       </c>
       <c r="E37" s="12">
-        <v>0</v>
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F37" s="12">
-        <v>0</v>
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G37" s="12">
         <v>0</v>
@@ -7555,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K37" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L37" s="12">
         <v>0</v>
@@ -7606,31 +7612,35 @@
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AB37" s="12">
         <v>0</v>
       </c>
       <c r="AC37" s="12">
-        <v>0</v>
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AD37" s="12">
-        <v>0</v>
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AE37" s="12">
         <v>0</v>
       </c>
       <c r="AF37" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AG37" s="12">
         <v>0</v>
       </c>
       <c r="AH37" s="12">
-        <v>0</v>
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AI37" s="12">
-        <v>0</v>
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AJ37" s="12">
         <v>0</v>
@@ -7676,15 +7686,15 @@
       </c>
       <c r="AX37" s="1">
         <f>SUM(C37:G37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37" s="1">
         <f>SUM(H37:L37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="1">
-        <f t="shared" ref="AZ37:AZ38" si="53">SUM(AF37:AJ37)</f>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>1</v>
       </c>
       <c r="BA37" s="1">
         <f>SUM(Q37:U37)</f>
@@ -7696,7 +7706,7 @@
       </c>
       <c r="BC37" s="1">
         <f>SUM(AF37:AJ37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD37" s="1">
         <f>SUM(AK37:AP37)</f>
@@ -7714,25 +7724,23 @@
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38" s="12">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="D38" s="12">
         <v>0</v>
       </c>
       <c r="E38" s="12">
-        <f>0.4*0.12</f>
-        <v>4.8000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="12">
-        <f>0.6*0.12</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12">
         <v>0</v>
@@ -7744,10 +7752,10 @@
         <v>0</v>
       </c>
       <c r="J38" s="12">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K38" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L38" s="12">
         <v>0</v>
@@ -7795,35 +7803,31 @@
         <v>0</v>
       </c>
       <c r="AA38" s="12">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="12">
         <v>0</v>
       </c>
       <c r="AC38" s="12">
-        <f>0.4*0.12</f>
-        <v>4.8000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="12">
-        <f>0.6*0.12</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="12">
         <v>0</v>
       </c>
       <c r="AF38" s="12">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="12">
         <v>0</v>
       </c>
       <c r="AH38" s="12">
-        <f>0.4*0.12</f>
-        <v>4.8000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="12">
-        <f>0.6*0.12</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="12">
         <v>0</v>
@@ -7876,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="AZ38" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AZ38:AZ39" si="53">SUM(AF38:AJ38)</f>
         <v>1</v>
       </c>
       <c r="BA38" s="1">
@@ -7907,11 +7911,11 @@
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="21"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C39" s="12">
         <v>0</v>
@@ -7920,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="12">
         <v>0</v>
@@ -7935,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="12">
         <v>0</v>
@@ -7992,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
@@ -8007,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="12">
         <v>0</v>
@@ -8055,38 +8059,38 @@
         <v>0</v>
       </c>
       <c r="AX39" s="1">
-        <f>SUM(C39:G39)</f>
-        <v>1</v>
+        <f t="shared" ref="AX39" si="54">SUM(C39:G39)</f>
+        <v>0</v>
       </c>
       <c r="AY39" s="1">
-        <f>SUM(H39:L39)</f>
-        <v>1</v>
+        <f t="shared" ref="AY39" si="55">SUM(H39:L39)</f>
+        <v>0</v>
       </c>
       <c r="AZ39" s="1">
-        <f t="shared" ref="AZ39:AZ40" si="54">SUM(AF39:AJ39)</f>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <f>SUM(Q39:U39)</f>
+        <f t="shared" ref="BA39" si="56">SUM(Q39:U39)</f>
         <v>0</v>
       </c>
       <c r="BB39" s="1">
-        <f>SUM(V39:Z39)</f>
+        <f t="shared" ref="BB39" si="57">SUM(V39:Z39)</f>
         <v>0</v>
       </c>
       <c r="BC39" s="1">
-        <f>SUM(AF39:AJ39)</f>
-        <v>1</v>
+        <f t="shared" ref="BC39" si="58">SUM(AF39:AJ39)</f>
+        <v>0</v>
       </c>
       <c r="BD39" s="1">
-        <f>SUM(AK39:AP39)</f>
+        <f t="shared" ref="BD39" si="59">SUM(AK39:AP39)</f>
         <v>0</v>
       </c>
       <c r="BE39" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BF39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG39" s="1">
         <v>0</v>
@@ -8094,11 +8098,11 @@
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="12">
         <v>0</v>
@@ -8242,229 +8246,45 @@
         <v>0</v>
       </c>
       <c r="AX40" s="1">
-        <f t="shared" ref="AX40" si="55">SUM(C40:G40)</f>
+        <f t="shared" ref="AX40" si="60">SUM(C40:G40)</f>
         <v>0</v>
       </c>
       <c r="AY40" s="1">
-        <f t="shared" ref="AY40" si="56">SUM(H40:L40)</f>
+        <f t="shared" ref="AY40" si="61">SUM(H40:L40)</f>
         <v>0</v>
       </c>
       <c r="AZ40" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="AZ40" si="62">SUM(AF40:AJ40)</f>
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <f t="shared" ref="BA40" si="57">SUM(Q40:U40)</f>
+        <f t="shared" ref="BA40" si="63">SUM(Q40:U40)</f>
         <v>0</v>
       </c>
       <c r="BB40" s="1">
-        <f t="shared" ref="BB40" si="58">SUM(V40:Z40)</f>
+        <f t="shared" ref="BB40" si="64">SUM(V40:Z40)</f>
         <v>0</v>
       </c>
       <c r="BC40" s="1">
-        <f t="shared" ref="BC40" si="59">SUM(AF40:AJ40)</f>
+        <f t="shared" ref="BC40" si="65">SUM(AF40:AJ40)</f>
         <v>0</v>
       </c>
       <c r="BD40" s="1">
-        <f t="shared" ref="BD40" si="60">SUM(AK40:AP40)</f>
+        <f t="shared" ref="BD40" si="66">SUM(AK40:AP40)</f>
         <v>0</v>
       </c>
       <c r="BE40" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BF40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <f t="shared" si="51"/>
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="12">
-        <v>0</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0</v>
-      </c>
-      <c r="F41" s="12">
-        <v>0</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
-      <c r="J41" s="12">
-        <v>0</v>
-      </c>
-      <c r="K41" s="12">
-        <v>0</v>
-      </c>
-      <c r="L41" s="12">
-        <v>0</v>
-      </c>
-      <c r="M41" s="12">
-        <v>0</v>
-      </c>
-      <c r="N41" s="12">
-        <v>0</v>
-      </c>
-      <c r="O41" s="12">
-        <v>0</v>
-      </c>
-      <c r="P41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="12">
-        <v>0</v>
-      </c>
-      <c r="R41" s="12">
-        <v>0</v>
-      </c>
-      <c r="S41" s="12">
-        <v>0</v>
-      </c>
-      <c r="T41" s="12">
-        <v>0</v>
-      </c>
-      <c r="U41" s="12">
-        <v>0</v>
-      </c>
-      <c r="V41" s="12">
-        <v>0</v>
-      </c>
-      <c r="W41" s="12">
-        <v>0</v>
-      </c>
-      <c r="X41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="1">
-        <f t="shared" ref="AX41" si="61">SUM(C41:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="AY41" s="1">
-        <f t="shared" ref="AY41" si="62">SUM(H41:L41)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="1">
-        <f t="shared" ref="AZ41" si="63">SUM(AF41:AJ41)</f>
-        <v>0</v>
-      </c>
-      <c r="BA41" s="1">
-        <f t="shared" ref="BA41" si="64">SUM(Q41:U41)</f>
-        <v>0</v>
-      </c>
-      <c r="BB41" s="1">
-        <f t="shared" ref="BB41" si="65">SUM(V41:Z41)</f>
-        <v>0</v>
-      </c>
-      <c r="BC41" s="1">
-        <f t="shared" ref="BC41" si="66">SUM(AF41:AJ41)</f>
-        <v>0</v>
-      </c>
-      <c r="BD41" s="1">
-        <f t="shared" ref="BD41" si="67">SUM(AK41:AP41)</f>
-        <v>0</v>
-      </c>
-      <c r="BE41" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF41" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG41" s="1">
-        <v>0</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -8481,14 +8301,11 @@
     <row r="46" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AX12:BD12 AX31:BD31 AX2:BD8 AX16:BD29" formulaRange="1"/>
+    <ignoredError sqref="AX12:BD12 AX30:BD30 AX2:BD8 AX16:BD16 AX17:BD28" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Events.xlsx
+++ b/cbrunner/Parameters/Parameters_Events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF27B8-0816-4D9B-8A53-334C0FC33D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C8547-CF2F-4FC8-A715-28F8A1EE47A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -497,10 +497,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,18 +798,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
   <dimension ref="A1:BG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="49" width="10.33203125" style="13" customWidth="1"/>
+    <col min="3" max="6" width="10.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="13" customWidth="1"/>
+    <col min="8" max="49" width="10.33203125" style="13" customWidth="1"/>
     <col min="57" max="59" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -1146,12 +1144,12 @@
       <c r="AW2" s="12">
         <v>0</v>
       </c>
-      <c r="AX2" s="1">
-        <f t="shared" ref="AX2:AX30" si="0">SUM(C2:G2)</f>
+      <c r="AX2" s="12">
+        <f>SUM(C2:G2)</f>
         <v>1</v>
       </c>
       <c r="AY2" s="1">
-        <f t="shared" ref="AY2:AY30" si="1">SUM(H2:L2)</f>
+        <f t="shared" ref="AY2:AY30" si="0">SUM(H2:L2)</f>
         <v>1</v>
       </c>
       <c r="AZ2" s="1">
@@ -1333,11 +1331,11 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
+        <f t="shared" ref="AX3:AX30" si="1">SUM(C3:G3)</f>
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY3" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ3" s="1">
@@ -1519,11 +1517,11 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY4" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ4" s="1">
@@ -1705,11 +1703,11 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY5" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ5" s="1">
@@ -1891,11 +1889,11 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY6" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY6" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ6" s="1">
@@ -2077,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY7" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ7" s="1">
@@ -2263,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY8" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ8" s="1">
@@ -3007,11 +3005,11 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY12" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ12" s="1">
@@ -3752,11 +3750,11 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY16" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ16" s="1">
@@ -3939,11 +3937,11 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY17" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ17" s="1">
@@ -4126,11 +4124,11 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY18" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY18" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ18" s="1">
@@ -4171,153 +4169,153 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>0</v>
-      </c>
-      <c r="R19" s="12">
-        <v>0</v>
-      </c>
-      <c r="S19" s="12">
-        <v>0</v>
-      </c>
-      <c r="T19" s="12">
-        <v>0</v>
-      </c>
-      <c r="U19" s="12">
-        <v>0</v>
-      </c>
-      <c r="V19" s="12">
-        <v>0</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="12">
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AL19" s="12">
+      <c r="AL19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AM19" s="12">
+      <c r="AM19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AN19" s="12">
+      <c r="AN19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AO19" s="12">
+      <c r="AO19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AP19" s="12">
+      <c r="AP19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AQ19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="12">
+      <c r="AQ19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="14">
         <v>0</v>
       </c>
       <c r="AX19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY19" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ19" s="1">
@@ -4500,11 +4498,11 @@
         <v>0</v>
       </c>
       <c r="AX20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY20" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ20" s="1">
@@ -4687,11 +4685,11 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY21" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ21" s="1">
@@ -4874,11 +4872,11 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY22" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ22" s="1">
@@ -5061,11 +5059,11 @@
         <v>0</v>
       </c>
       <c r="AX23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY23" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
@@ -5248,11 +5246,11 @@
         <v>0</v>
       </c>
       <c r="AX24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY24" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
@@ -5435,11 +5433,11 @@
         <v>0</v>
       </c>
       <c r="AX25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY25" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ25" s="1">
@@ -5622,11 +5620,11 @@
         <v>0</v>
       </c>
       <c r="AX26" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY26" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY26" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ26" s="1">
@@ -5809,11 +5807,11 @@
         <v>0</v>
       </c>
       <c r="AX27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY27" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ27" s="1">
@@ -5996,11 +5994,11 @@
         <v>0</v>
       </c>
       <c r="AX28" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY28" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY28" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ28" s="1">
@@ -6370,11 +6368,11 @@
         <v>0</v>
       </c>
       <c r="AX30" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY30" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY30" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ30" s="1">
@@ -7163,145 +7161,145 @@
       <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="12">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
-      <c r="F35" s="12">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0</v>
-      </c>
-      <c r="K35" s="12">
-        <v>0</v>
-      </c>
-      <c r="L35" s="12">
-        <v>0</v>
-      </c>
-      <c r="M35" s="12">
-        <v>0</v>
-      </c>
-      <c r="N35" s="12">
-        <v>0</v>
-      </c>
-      <c r="O35" s="12">
-        <v>0</v>
-      </c>
-      <c r="P35" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="12">
-        <v>0</v>
-      </c>
-      <c r="R35" s="12">
-        <v>0</v>
-      </c>
-      <c r="S35" s="12">
-        <v>0</v>
-      </c>
-      <c r="T35" s="12">
-        <v>0</v>
-      </c>
-      <c r="U35" s="12">
-        <v>0</v>
-      </c>
-      <c r="V35" s="12">
-        <v>0</v>
-      </c>
-      <c r="W35" s="12">
-        <v>0</v>
-      </c>
-      <c r="X35" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="12">
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>0</v>
+      </c>
+      <c r="R35" s="14">
+        <v>0</v>
+      </c>
+      <c r="S35" s="14">
+        <v>0</v>
+      </c>
+      <c r="T35" s="14">
+        <v>0</v>
+      </c>
+      <c r="U35" s="14">
+        <v>0</v>
+      </c>
+      <c r="V35" s="14">
+        <v>0</v>
+      </c>
+      <c r="W35" s="14">
+        <v>0</v>
+      </c>
+      <c r="X35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="14">
         <v>0</v>
       </c>
       <c r="AX35" s="1">
@@ -8104,145 +8102,145 @@
       <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="12">
-        <v>0</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0</v>
-      </c>
-      <c r="F40" s="12">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0</v>
-      </c>
-      <c r="J40" s="12">
-        <v>0</v>
-      </c>
-      <c r="K40" s="12">
-        <v>0</v>
-      </c>
-      <c r="L40" s="12">
-        <v>0</v>
-      </c>
-      <c r="M40" s="12">
-        <v>0</v>
-      </c>
-      <c r="N40" s="12">
-        <v>0</v>
-      </c>
-      <c r="O40" s="12">
-        <v>0</v>
-      </c>
-      <c r="P40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>0</v>
-      </c>
-      <c r="R40" s="12">
-        <v>0</v>
-      </c>
-      <c r="S40" s="12">
-        <v>0</v>
-      </c>
-      <c r="T40" s="12">
-        <v>0</v>
-      </c>
-      <c r="U40" s="12">
-        <v>0</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12">
-        <v>0</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="12">
+      <c r="C40" s="14">
+        <v>0</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14">
+        <v>0</v>
+      </c>
+      <c r="P40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>0</v>
+      </c>
+      <c r="R40" s="14">
+        <v>0</v>
+      </c>
+      <c r="S40" s="14">
+        <v>0</v>
+      </c>
+      <c r="T40" s="14">
+        <v>0</v>
+      </c>
+      <c r="U40" s="14">
+        <v>0</v>
+      </c>
+      <c r="V40" s="14">
+        <v>0</v>
+      </c>
+      <c r="W40" s="14">
+        <v>0</v>
+      </c>
+      <c r="X40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="14">
         <v>0</v>
       </c>
       <c r="AX40" s="1">
@@ -8305,7 +8303,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AX12:BD12 AX30:BD30 AX2:BD8 AX16:BD16 AX17:BD28" formulaRange="1"/>
+    <ignoredError sqref="AX12:BD12 AX30:BD30 AX3:BD8 AX16:BD16 AX17:BD28 AY2:BD2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Events.xlsx
+++ b/cbrunner/Parameters/Parameters_Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C8547-CF2F-4FC8-A715-28F8A1EE47A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B85423-B37A-4A10-B74F-67A16865FEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Wildfire</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Harvest</t>
   </si>
   <si>
-    <t>Slashpile Burn</t>
-  </si>
-  <si>
     <t>Knockdown</t>
   </si>
   <si>
@@ -110,30 +107,6 @@
     <t>Road Deactivation</t>
   </si>
   <si>
-    <t>StemwoodMerchRemoved</t>
-  </si>
-  <si>
-    <t>StemwoodMerchBurned</t>
-  </si>
-  <si>
-    <t>StemwoodMerchLeftOnSite</t>
-  </si>
-  <si>
-    <t>StemwoodNonMerchPiled</t>
-  </si>
-  <si>
-    <t>StemwoodMerchPiled</t>
-  </si>
-  <si>
-    <t>StemwoodNonMerchRemoved</t>
-  </si>
-  <si>
-    <t>StemwoodNonMerchBurned</t>
-  </si>
-  <si>
-    <t>StemwoodNonMerchLeftOnSite</t>
-  </si>
-  <si>
     <t>PiledStemMerchBurned</t>
   </si>
   <si>
@@ -146,12 +119,6 @@
     <t>PiledBarkBurned</t>
   </si>
   <si>
-    <t>PiledSnagStemBurned</t>
-  </si>
-  <si>
-    <t>PiledSnagBranchBurned</t>
-  </si>
-  <si>
     <t>FoliageRemoved</t>
   </si>
   <si>
@@ -206,48 +173,6 @@
     <t>SoilSBurned</t>
   </si>
   <si>
-    <t>SnagStemRemoved</t>
-  </si>
-  <si>
-    <t>SnagStemBurned</t>
-  </si>
-  <si>
-    <t>SnagStemLeftOnSite</t>
-  </si>
-  <si>
-    <t>SnagStemPiled</t>
-  </si>
-  <si>
-    <t>SnagBranchRemoved</t>
-  </si>
-  <si>
-    <t>SnagBranchBurned</t>
-  </si>
-  <si>
-    <t>SnagBranchLeftOnSite</t>
-  </si>
-  <si>
-    <t>SnagBranchPiled</t>
-  </si>
-  <si>
-    <t>StemwoodMerchToSnagStem</t>
-  </si>
-  <si>
-    <t>StemwoodNonMerchToSnagStem</t>
-  </si>
-  <si>
-    <t>BarkToSnagStem</t>
-  </si>
-  <si>
-    <t>BranchToSnagBranch</t>
-  </si>
-  <si>
-    <t>SnagStemToSnagStem</t>
-  </si>
-  <si>
-    <t>SnagBranchToSnagBranch</t>
-  </si>
-  <si>
     <t>LitterSBurned</t>
   </si>
   <si>
@@ -327,6 +252,117 @@
   </si>
   <si>
     <t>Nutrient App Aerial</t>
+  </si>
+  <si>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>GreenStemMerchRemoved</t>
+  </si>
+  <si>
+    <t>GreenStemMerchBurned</t>
+  </si>
+  <si>
+    <t>GreenStemMerchLeftOnSite</t>
+  </si>
+  <si>
+    <t>GreenStemMerchPiled</t>
+  </si>
+  <si>
+    <t>GreenStemNonMerchRemoved</t>
+  </si>
+  <si>
+    <t>GreenStemNonMerchBurned</t>
+  </si>
+  <si>
+    <t>GreenStemNonMerchLeftOnSite</t>
+  </si>
+  <si>
+    <t>GreenStemNonMerchPiled</t>
+  </si>
+  <si>
+    <t>DeadStemMerchRemoved</t>
+  </si>
+  <si>
+    <t>DeadStemMerchBurned</t>
+  </si>
+  <si>
+    <t>DeadStemMerchLeftOnSite</t>
+  </si>
+  <si>
+    <t>DeadStemMerchPiled</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerchRemoved</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerchBurned</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerchLeftOnSite</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerchPiled</t>
+  </si>
+  <si>
+    <t>DeadBranchRemoved</t>
+  </si>
+  <si>
+    <t>DeadBranchBurned</t>
+  </si>
+  <si>
+    <t>DeadBranchLeftOnSite</t>
+  </si>
+  <si>
+    <t>DeadBranchPiled</t>
+  </si>
+  <si>
+    <t>DeadBranchToDeadBranch</t>
+  </si>
+  <si>
+    <t>PiledDeadStemBurned</t>
+  </si>
+  <si>
+    <t>PiledDeadBranchBurned</t>
+  </si>
+  <si>
+    <t>GreenStemMerchToDeadStemMerch</t>
+  </si>
+  <si>
+    <t>GreenStemNonMerchToDeadStemNonMerch</t>
+  </si>
+  <si>
+    <t>BranchToDeadBranch</t>
+  </si>
+  <si>
+    <t>Pile Burn</t>
+  </si>
+  <si>
+    <t>PiledFoliageBurned</t>
+  </si>
+  <si>
+    <t>DeadBarkRemoved</t>
+  </si>
+  <si>
+    <t>DeadBarkBurned</t>
+  </si>
+  <si>
+    <t>DeadBarkLeftOnSite</t>
+  </si>
+  <si>
+    <t>DeadBarkPiled</t>
+  </si>
+  <si>
+    <t>DeadBarkToDeadBark</t>
+  </si>
+  <si>
+    <t>BarkToDeadBark</t>
+  </si>
+  <si>
+    <t>DeadStemMerchToDeadStemMerch</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerchToDeadStemNonMerch</t>
   </si>
 </sst>
 </file>
@@ -796,26 +832,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
-  <dimension ref="A1:BG46"/>
+  <dimension ref="A1:BR46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="6" width="10.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="13" customWidth="1"/>
-    <col min="8" max="49" width="10.33203125" style="13" customWidth="1"/>
-    <col min="57" max="59" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="6" width="10.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="13" customWidth="1"/>
+    <col min="8" max="60" width="10.28515625" style="13" customWidth="1"/>
+    <col min="68" max="70" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -823,178 +859,211 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="AW1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="AX1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="AY1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="BC1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="BD1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="BE1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="BG1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="BH1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" s="6" t="s">
+      <c r="BI1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="BM1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="BN1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="8" t="s">
+      <c r="BO1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="BP1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="BR1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1020,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="12">
         <v>0</v>
@@ -1029,16 +1098,17 @@
         <v>0</v>
       </c>
       <c r="L2" s="12">
-        <v>0</v>
+        <f>1-I2</f>
+        <v>1</v>
       </c>
       <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O2" s="12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P2" s="12">
         <v>0</v>
@@ -1047,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" s="12">
         <v>0</v>
@@ -1056,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V2" s="12">
         <v>0</v>
       </c>
       <c r="W2" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="X2" s="12">
         <v>0</v>
@@ -1071,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="Z2" s="12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="12">
         <v>0</v>
       </c>
       <c r="AB2" s="12">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="12">
         <v>0</v>
@@ -1086,14 +1156,13 @@
         <v>0</v>
       </c>
       <c r="AE2" s="12">
-        <f>1-AB2</f>
-        <v>0.82000000000000006</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="12">
         <v>0</v>
       </c>
       <c r="AG2" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="12">
         <v>0</v>
@@ -1103,91 +1172,126 @@
       </c>
       <c r="AJ2" s="12">
         <f>1-AG2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="12">
+        <f>1-AL2</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="12">
+        <f>1-AQ2</f>
+        <v>0</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="12">
         <v>0.75</v>
       </c>
-      <c r="AL2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AT2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="AV2" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="AW2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="12">
+      <c r="BD2" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="BE2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="12">
         <f>SUM(C2:G2)</f>
         <v>1</v>
       </c>
-      <c r="AY2" s="1">
-        <f t="shared" ref="AY2:AY30" si="0">SUM(H2:L2)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="1">
+      <c r="BJ2" s="1">
+        <f t="shared" ref="BJ2" si="0">SUM(H2:L2)</f>
+        <v>1</v>
+      </c>
+      <c r="BK2" s="1">
         <f>SUM(M2:P2)</f>
         <v>1</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BL2" s="1">
         <f>SUM(Q2:U2)</f>
         <v>1</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BM2" s="1">
         <f>SUM(V2:Z2)</f>
         <v>1</v>
       </c>
-      <c r="BC2" s="1">
-        <f>SUM(AF2:AJ2)</f>
-        <v>1</v>
-      </c>
-      <c r="BD2" s="1">
-        <f>SUM(AK2:AP2)</f>
-        <v>5.75</v>
-      </c>
-      <c r="BE2" s="1">
+      <c r="BN2" s="1">
+        <f>SUM(AK2:AO2)</f>
+        <v>1</v>
+      </c>
+      <c r="BO2" s="1">
+        <f>SUM(AU2:BA2)</f>
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
         <v>0.75</v>
       </c>
-      <c r="BF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1">
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
@@ -1304,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="12">
         <v>0</v>
@@ -1319,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="12">
         <v>0</v>
@@ -1330,50 +1434,83 @@
       <c r="AW3" s="12">
         <v>0</v>
       </c>
-      <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AX30" si="1">SUM(C3:G3)</f>
-        <v>1</v>
-      </c>
-      <c r="AY3" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="1">
-        <f t="shared" ref="AZ3:AZ6" si="2">SUM(AF3:AJ3)</f>
-        <v>1</v>
-      </c>
-      <c r="BA3" s="1">
+      <c r="AX3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <f t="shared" ref="BI3:BI30" si="1">SUM(C3:G3)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1">
+        <f t="shared" ref="BJ3:BJ30" si="2">SUM(H3:L3)</f>
+        <v>1</v>
+      </c>
+      <c r="BK3" s="1">
+        <f t="shared" ref="BK3:BK6" si="3">SUM(AK3:AO3)</f>
+        <v>1</v>
+      </c>
+      <c r="BL3" s="1">
         <f>SUM(Q3:U3)</f>
         <v>1</v>
       </c>
-      <c r="BB3" s="1">
+      <c r="BM3" s="1">
         <f>SUM(V3:Z3)</f>
         <v>1</v>
       </c>
-      <c r="BC3" s="1">
-        <f>SUM(AF3:AJ3)</f>
-        <v>1</v>
-      </c>
-      <c r="BD3" s="1">
-        <f>SUM(AK3:AP3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1">
+      <c r="BN3" s="1">
+        <f>SUM(AK3:AO3)</f>
+        <v>1</v>
+      </c>
+      <c r="BO3" s="1">
+        <f>SUM(AU3:BA3)</f>
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1">
         <v>0.3</v>
       </c>
-      <c r="BF3" s="1">
+      <c r="BQ3" s="1">
         <v>0.8</v>
       </c>
-      <c r="BG3" s="1">
+      <c r="BR3" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C4" s="12">
         <v>0</v>
@@ -1430,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="12">
         <v>0</v>
@@ -1445,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="12">
         <v>0</v>
@@ -1490,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="AO4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="12">
         <v>0</v>
@@ -1505,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="12">
         <v>0</v>
@@ -1516,50 +1653,83 @@
       <c r="AW4" s="12">
         <v>0</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="1">
+      <c r="BJ4" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BA4" s="1">
-        <f t="shared" ref="BA4:BA30" si="3">SUM(Q4:U4)</f>
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1">
-        <f t="shared" ref="BB4:BB30" si="4">SUM(V4:Z4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <f t="shared" ref="BC4:BC30" si="5">SUM(AF4:AJ4)</f>
-        <v>1</v>
-      </c>
-      <c r="BD4" s="1">
-        <f t="shared" ref="BD4:BD30" si="6">SUM(AK4:AP4)</f>
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="1">
+      <c r="BK4" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BL4" s="1">
+        <f t="shared" ref="BL4:BL30" si="4">SUM(Q4:U4)</f>
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1">
+        <f t="shared" ref="BM4:BM30" si="5">SUM(V4:Z4)</f>
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1">
+        <f t="shared" ref="BN4:BN30" si="6">SUM(AK4:AO4)</f>
+        <v>1</v>
+      </c>
+      <c r="BO4" s="1">
+        <f t="shared" ref="BO4:BO30" si="7">SUM(AU4:BA4)</f>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="1">
         <v>0.9</v>
       </c>
-      <c r="BG4" s="1">
+      <c r="BR4" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -1616,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="12">
         <v>0</v>
@@ -1631,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="12">
         <v>0</v>
@@ -1676,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="12">
         <v>0</v>
@@ -1691,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="12">
         <v>0</v>
@@ -1702,50 +1872,83 @@
       <c r="AW5" s="12">
         <v>0</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="1">
+      <c r="BJ5" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BK5" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BD5" s="1">
+      <c r="BN5" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1">
         <v>0.15</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BQ5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BG5" s="1">
+      <c r="BR5" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -1802,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="12">
         <v>0</v>
@@ -1817,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="12">
         <v>0</v>
@@ -1862,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="12">
         <v>0</v>
@@ -1877,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="12">
         <v>0</v>
@@ -1888,50 +2091,83 @@
       <c r="AW6" s="12">
         <v>0</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AX6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="1">
+      <c r="BJ6" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BA6" s="1">
+      <c r="BK6" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BD6" s="1">
+      <c r="BN6" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1">
         <v>0.8</v>
       </c>
-      <c r="BF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="1">
+      <c r="BQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
@@ -1970,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="12">
         <v>0</v>
@@ -1988,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="12">
         <v>0</v>
@@ -2003,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="12">
         <v>0</v>
@@ -2048,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="12">
         <v>0</v>
@@ -2063,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="12">
         <v>0</v>
@@ -2074,50 +2310,83 @@
       <c r="AW7" s="12">
         <v>0</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AX7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="1">
-        <f>SUM(AF7:AJ7)</f>
-        <v>1</v>
-      </c>
-      <c r="BA7" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1">
+      <c r="BJ7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK7" s="1">
+        <f>SUM(AK7:AO7)</f>
+        <v>1</v>
+      </c>
+      <c r="BL7" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BN7" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="1">
         <v>0.6</v>
       </c>
-      <c r="BG7" s="1">
+      <c r="BR7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -2156,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="12">
         <v>0</v>
@@ -2174,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="12">
         <v>0</v>
@@ -2189,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="12">
         <v>0</v>
@@ -2234,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="12">
         <v>0</v>
@@ -2249,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="12">
         <v>0</v>
@@ -2260,50 +2529,83 @@
       <c r="AW8" s="12">
         <v>0</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AX8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY8" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="1">
-        <f>SUM(AF8:AJ8)</f>
-        <v>1</v>
-      </c>
-      <c r="BA8" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1">
+      <c r="BJ8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK8" s="1">
+        <f>SUM(AK8:AO8)</f>
+        <v>1</v>
+      </c>
+      <c r="BL8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BD8" s="1">
+      <c r="BN8" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
         <v>0.9</v>
       </c>
-      <c r="BF8" s="1">
+      <c r="BQ8" s="1">
         <v>0.5</v>
       </c>
-      <c r="BG8" s="1">
+      <c r="BR8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
@@ -2342,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="12">
         <v>0</v>
@@ -2360,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="12">
         <v>0</v>
@@ -2375,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="12">
         <v>0</v>
@@ -2390,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="12">
         <v>0</v>
@@ -2405,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="12">
         <v>0</v>
@@ -2420,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="12">
         <v>0</v>
@@ -2435,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="12">
         <v>0</v>
@@ -2446,50 +2748,83 @@
       <c r="AW9" s="12">
         <v>0</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AX9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1">
         <f>SUM(C9:G9)</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="BJ9" s="1">
         <f>SUM(H9:L9)</f>
         <v>0</v>
       </c>
-      <c r="AZ9" s="1">
-        <f t="shared" ref="AZ9:AZ11" si="7">SUM(AF9:AJ9)</f>
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
+      <c r="BK9" s="1">
+        <f t="shared" ref="BK9:BK11" si="8">SUM(AK9:AO9)</f>
+        <v>1</v>
+      </c>
+      <c r="BL9" s="1">
         <f>SUM(Q9:U9)</f>
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="1">
         <f>SUM(V9:Z9)</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <f>SUM(AF9:AJ9)</f>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1">
-        <f>SUM(AK9:AP9)</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="1">
+        <f>SUM(AK9:AO9)</f>
+        <v>1</v>
+      </c>
+      <c r="BO9" s="1">
+        <f>SUM(AU9:BA9)</f>
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1">
         <v>0.6</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="BQ9" s="1">
         <v>0.4</v>
       </c>
-      <c r="BG9" s="1">
+      <c r="BR9" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="12">
         <v>0</v>
@@ -2528,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="12">
         <v>0</v>
@@ -2546,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="12">
         <v>0</v>
@@ -2561,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="12">
         <v>0</v>
@@ -2576,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="12">
         <v>0</v>
@@ -2591,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="12">
         <v>0</v>
@@ -2606,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="12">
         <v>0</v>
@@ -2621,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AT10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="12">
         <v>0</v>
@@ -2632,50 +2967,83 @@
       <c r="AW10" s="12">
         <v>0</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AX10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="1">
         <f>SUM(C10:G10)</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="1">
+      <c r="BJ10" s="1">
         <f>SUM(H10:L10)</f>
         <v>0</v>
       </c>
-      <c r="AZ10" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA10" s="1">
+      <c r="BK10" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BL10" s="1">
         <f>SUM(Q10:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="BB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="1">
         <f>SUM(V10:Z10)</f>
-        <v>0</v>
-      </c>
-      <c r="BC10" s="1">
-        <f>SUM(AF10:AJ10)</f>
-        <v>0</v>
-      </c>
-      <c r="BD10" s="1">
-        <f>SUM(AK10:AP10)</f>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="1">
+        <f>SUM(AK10:AO10)</f>
+        <v>1</v>
+      </c>
+      <c r="BO10" s="1">
+        <f>SUM(AU10:BA10)</f>
+        <v>0</v>
+      </c>
+      <c r="BP10" s="1">
         <v>0.75</v>
       </c>
-      <c r="BF10" s="1">
+      <c r="BQ10" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BG10" s="1">
+      <c r="BR10" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="12">
         <v>0</v>
@@ -2714,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="12">
         <v>0</v>
@@ -2732,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="12">
         <v>0</v>
@@ -2747,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="12">
         <v>0</v>
@@ -2762,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="12">
         <v>0</v>
@@ -2777,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="12">
         <v>0</v>
@@ -2792,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="12">
         <v>0</v>
@@ -2807,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="12">
         <v>0</v>
@@ -2818,50 +3186,83 @@
       <c r="AW11" s="12">
         <v>0</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AX11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="1">
         <f>SUM(C11:G11)</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="1">
+      <c r="BJ11" s="1">
         <f>SUM(H11:L11)</f>
         <v>0</v>
       </c>
-      <c r="AZ11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BA11" s="1">
+      <c r="BK11" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BL11" s="1">
         <f>SUM(Q11:U11)</f>
-        <v>0</v>
-      </c>
-      <c r="BB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="1">
         <f>SUM(V11:Z11)</f>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="1">
-        <f>SUM(AF11:AJ11)</f>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="1">
-        <f>SUM(AK11:AP11)</f>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="1">
+        <f>SUM(AK11:AO11)</f>
+        <v>1</v>
+      </c>
+      <c r="BO11" s="1">
+        <f>SUM(AU11:BA11)</f>
+        <v>0</v>
+      </c>
+      <c r="BP11" s="1">
         <v>0.85</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BQ11" s="1">
         <v>0.65</v>
       </c>
-      <c r="BG11" s="1">
+      <c r="BR11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="12">
         <v>0</v>
@@ -2870,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="12">
         <v>0</v>
       </c>
       <c r="G12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <v>0</v>
@@ -2885,13 +3286,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="12">
         <v>0</v>
       </c>
       <c r="L12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="12">
         <v>0</v>
@@ -2900,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="12">
         <v>0</v>
@@ -2912,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="12">
         <v>0</v>
@@ -2927,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="12">
         <v>0</v>
@@ -2942,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="AC12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="12">
         <v>0</v>
       </c>
       <c r="AE12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="12">
         <v>0</v>
@@ -2957,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AH12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="12">
         <v>0</v>
       </c>
       <c r="AJ12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="12">
         <v>0</v>
@@ -2972,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="12">
         <v>0</v>
@@ -2987,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="12">
         <v>0</v>
@@ -3004,50 +3405,83 @@
       <c r="AW12" s="12">
         <v>0</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AX12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY12" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="1">
-        <f>SUM(AF12:AJ12)</f>
-        <v>1</v>
-      </c>
-      <c r="BA12" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB12" s="1">
+      <c r="BJ12" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK12" s="1">
+        <f>SUM(AK12:AO12)</f>
+        <v>1</v>
+      </c>
+      <c r="BL12" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BD12" s="1">
+      <c r="BN12" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C13" s="12">
         <v>0</v>
@@ -3086,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="12">
         <v>0</v>
@@ -3104,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -3119,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="12">
         <v>0</v>
@@ -3164,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="AO13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="12">
         <v>0</v>
@@ -3179,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="12">
         <v>0</v>
@@ -3190,50 +3624,83 @@
       <c r="AW13" s="12">
         <v>0</v>
       </c>
-      <c r="AX13" s="1">
-        <f t="shared" ref="AX13:AX14" si="8">SUM(C13:G13)</f>
-        <v>1</v>
-      </c>
-      <c r="AY13" s="1">
-        <f t="shared" ref="AY13:AY14" si="9">SUM(H13:L13)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="1">
-        <f>SUM(AF13:AJ13)</f>
-        <v>1</v>
-      </c>
-      <c r="BA13" s="1">
-        <f t="shared" ref="BA13:BA14" si="10">SUM(Q13:U13)</f>
-        <v>0</v>
-      </c>
-      <c r="BB13" s="1">
-        <f t="shared" ref="BB13:BB14" si="11">SUM(V13:Z13)</f>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="1">
-        <f t="shared" ref="BC13:BC14" si="12">SUM(AF13:AJ13)</f>
-        <v>1</v>
-      </c>
-      <c r="BD13" s="1">
-        <f t="shared" ref="BD13:BD14" si="13">SUM(AK13:AP13)</f>
-        <v>0</v>
-      </c>
-      <c r="BE13" s="1">
+      <c r="AX13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="1">
+        <f t="shared" ref="BI13:BI14" si="9">SUM(C13:G13)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1">
+        <f t="shared" ref="BJ13:BJ14" si="10">SUM(H13:L13)</f>
+        <v>1</v>
+      </c>
+      <c r="BK13" s="1">
+        <f>SUM(AK13:AO13)</f>
+        <v>1</v>
+      </c>
+      <c r="BL13" s="1">
+        <f t="shared" ref="BL13:BL14" si="11">SUM(Q13:U13)</f>
+        <v>1</v>
+      </c>
+      <c r="BM13" s="1">
+        <f t="shared" ref="BM13:BM14" si="12">SUM(V13:Z13)</f>
+        <v>1</v>
+      </c>
+      <c r="BN13" s="1">
+        <f t="shared" ref="BN13:BN14" si="13">SUM(AK13:AO13)</f>
+        <v>1</v>
+      </c>
+      <c r="BO13" s="1">
+        <f t="shared" ref="BO13:BO14" si="14">SUM(AU13:BA13)</f>
+        <v>0</v>
+      </c>
+      <c r="BP13" s="1">
         <v>0.15</v>
       </c>
-      <c r="BF13" s="1">
+      <c r="BQ13" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG13" s="1">
+      <c r="BR13" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C14" s="12">
         <v>0</v>
@@ -3272,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="12">
         <v>0</v>
@@ -3290,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="12">
         <v>0</v>
@@ -3305,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="12">
         <v>0</v>
@@ -3350,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="12">
         <v>0</v>
@@ -3365,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="12">
         <v>0</v>
@@ -3376,50 +3843,83 @@
       <c r="AW14" s="12">
         <v>0</v>
       </c>
-      <c r="AX14" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AY14" s="1">
+      <c r="AX14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="1">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AZ14" s="1">
-        <f>SUM(AF14:AJ14)</f>
-        <v>1</v>
-      </c>
-      <c r="BA14" s="1">
+      <c r="BJ14" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="1">
+        <f>SUM(AK14:AO14)</f>
+        <v>1</v>
+      </c>
+      <c r="BL14" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="1">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="BD14" s="1">
+      <c r="BN14" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BP14" s="1">
         <v>0.3</v>
       </c>
-      <c r="BF14" s="1">
+      <c r="BQ14" s="1">
         <v>0.4</v>
       </c>
-      <c r="BG14" s="1">
+      <c r="BR14" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C15" s="12">
         <v>0</v>
@@ -3458,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="12">
         <v>0</v>
@@ -3476,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="12">
         <v>0</v>
@@ -3491,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="12">
         <v>0</v>
@@ -3536,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="12">
         <v>0</v>
@@ -3551,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="12">
         <v>0</v>
@@ -3562,45 +4062,78 @@
       <c r="AW15" s="12">
         <v>0</v>
       </c>
-      <c r="AX15" s="1">
-        <f t="shared" ref="AX15" si="14">SUM(C15:G15)</f>
-        <v>1</v>
-      </c>
-      <c r="AY15" s="1">
-        <f t="shared" ref="AY15" si="15">SUM(H15:L15)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="1">
-        <f>SUM(AF15:AJ15)</f>
-        <v>1</v>
-      </c>
-      <c r="BA15" s="1">
-        <f t="shared" ref="BA15" si="16">SUM(Q15:U15)</f>
-        <v>0</v>
-      </c>
-      <c r="BB15" s="1">
-        <f t="shared" ref="BB15" si="17">SUM(V15:Z15)</f>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="1">
-        <f t="shared" ref="BC15" si="18">SUM(AF15:AJ15)</f>
-        <v>1</v>
-      </c>
-      <c r="BD15" s="1">
-        <f t="shared" ref="BD15" si="19">SUM(AK15:AP15)</f>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG15" s="1">
+      <c r="AX15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="1">
+        <f t="shared" ref="BI15" si="15">SUM(C15:G15)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="1">
+        <f t="shared" ref="BJ15" si="16">SUM(H15:L15)</f>
+        <v>1</v>
+      </c>
+      <c r="BK15" s="1">
+        <f>SUM(AK15:AO15)</f>
+        <v>1</v>
+      </c>
+      <c r="BL15" s="1">
+        <f t="shared" ref="BL15" si="17">SUM(Q15:U15)</f>
+        <v>1</v>
+      </c>
+      <c r="BM15" s="1">
+        <f t="shared" ref="BM15" si="18">SUM(V15:Z15)</f>
+        <v>1</v>
+      </c>
+      <c r="BN15" s="1">
+        <f t="shared" ref="BN15" si="19">SUM(AK15:AO15)</f>
+        <v>1</v>
+      </c>
+      <c r="BO15" s="1">
+        <f t="shared" ref="BO15" si="20">SUM(AU15:BA15)</f>
+        <v>0</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>A15+1</f>
         <v>15</v>
@@ -3749,47 +4282,80 @@
       <c r="AW16" s="14">
         <v>0</v>
       </c>
-      <c r="AX16" s="1">
+      <c r="AX16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="1">
-        <f t="shared" ref="AZ16" si="20">SUM(AF16:AJ16)</f>
-        <v>0</v>
-      </c>
-      <c r="BA16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB16" s="1">
+      <c r="BJ16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK16" s="1">
+        <f t="shared" ref="BK16" si="21">SUM(AK16:AO16)</f>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC16" s="1">
+      <c r="BM16" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BD16" s="1">
+      <c r="BN16" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BE16" s="1">
+      <c r="BO16" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP16" s="1">
         <v>0.25</v>
       </c>
-      <c r="BF16" s="1">
+      <c r="BQ16" s="1">
         <v>0.85</v>
       </c>
-      <c r="BG16" s="1">
+      <c r="BR16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" ref="A17:A40" si="21">A16+1</f>
+        <f t="shared" ref="A17:A41" si="22">A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3850,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="12">
         <v>0</v>
@@ -3865,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="12">
         <v>0</v>
@@ -3910,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="12">
         <v>0</v>
@@ -3925,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="12">
         <v>0</v>
@@ -3936,51 +4502,84 @@
       <c r="AW17" s="12">
         <v>0</v>
       </c>
-      <c r="AX17" s="1">
+      <c r="AX17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="1">
-        <f>SUM(AF17:AJ17)</f>
-        <v>0</v>
-      </c>
-      <c r="BA17" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB17" s="1">
+      <c r="BJ17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="1">
+        <f>SUM(AK17:AO17)</f>
+        <v>1</v>
+      </c>
+      <c r="BL17" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM17" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN17" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP17" s="1">
         <v>0.3</v>
       </c>
-      <c r="BF17" s="1">
+      <c r="BQ17" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BG17" s="1">
+      <c r="BR17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="12">
         <v>0</v>
@@ -4037,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="12">
         <v>0</v>
@@ -4052,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="12">
         <v>0</v>
@@ -4091,10 +4690,10 @@
         <v>0</v>
       </c>
       <c r="AM18" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN18" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO18" s="12">
         <v>0</v>
@@ -4106,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="AR18" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AS18" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AT18" s="12">
         <v>0</v>
@@ -4123,51 +4722,84 @@
       <c r="AW18" s="12">
         <v>0</v>
       </c>
-      <c r="AX18" s="1">
+      <c r="AX18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="1">
-        <f>SUM(AF18:AJ18)</f>
-        <v>1</v>
-      </c>
-      <c r="BA18" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB18" s="1">
+      <c r="BJ18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK18" s="1">
+        <f>SUM(AK18:AO18)</f>
+        <v>1</v>
+      </c>
+      <c r="BL18" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BD18" s="1">
+      <c r="BN18" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP18" s="1">
         <v>0.15</v>
       </c>
-      <c r="BF18" s="1">
+      <c r="BQ18" s="1">
         <v>0.35</v>
       </c>
-      <c r="BG18" s="1">
+      <c r="BR18" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C19" s="14">
         <v>0</v>
@@ -4272,85 +4904,118 @@
         <v>0</v>
       </c>
       <c r="AK19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AL19" s="14">
+      <c r="AV19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AM19" s="14">
+      <c r="AW19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AN19" s="14">
+      <c r="AX19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AO19" s="14">
+      <c r="AY19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AP19" s="14">
+      <c r="AZ19" s="14">
         <v>0.9</v>
       </c>
-      <c r="AQ19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="1">
+      <c r="BA19" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="BB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="1">
-        <f>SUM(AF19:AJ19)</f>
-        <v>0</v>
-      </c>
-      <c r="BA19" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB19" s="1">
+      <c r="BJ19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK19" s="1">
+        <f>SUM(AK19:AO19)</f>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC19" s="1">
+      <c r="BM19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BD19" s="1">
+      <c r="BN19" s="1">
         <f t="shared" si="6"/>
-        <v>5.4</v>
-      </c>
-      <c r="BE19" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="1">
+        <f t="shared" si="7"/>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="1">
         <v>0.85</v>
       </c>
-      <c r="BG19" s="1">
+      <c r="BR19" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -4462,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="12">
         <v>0</v>
@@ -4480,64 +5145,97 @@
         <v>1</v>
       </c>
       <c r="AR20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="12">
         <v>0.75</v>
       </c>
-      <c r="AS20" s="12">
+      <c r="BD20" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="12">
+      <c r="BE20" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="12">
         <v>0.04</v>
       </c>
-      <c r="AV20" s="12">
+      <c r="BG20" s="12">
         <v>0.02</v>
       </c>
-      <c r="AW20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="1">
+      <c r="BH20" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY20" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="1">
-        <f t="shared" ref="AZ20" si="22">SUM(AF20:AJ20)</f>
-        <v>1</v>
-      </c>
-      <c r="BA20" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB20" s="1">
+      <c r="BJ20" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK20" s="1">
+        <f t="shared" ref="BK20" si="23">SUM(AK20:AO20)</f>
+        <v>1</v>
+      </c>
+      <c r="BL20" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC20" s="1">
+      <c r="BM20" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO20" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP20" s="1">
         <v>0.5</v>
       </c>
-      <c r="BF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG20" s="1">
+      <c r="BQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -4684,51 +5382,84 @@
       <c r="AW21" s="12">
         <v>0</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AX21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="1">
-        <f t="shared" ref="AZ21:AZ25" si="23">SUM(AF21:AJ21)</f>
-        <v>0</v>
-      </c>
-      <c r="BA21" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB21" s="1">
+      <c r="BJ21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="1">
+        <f t="shared" ref="BK21:BK25" si="24">SUM(AK21:AO21)</f>
+        <v>0</v>
+      </c>
+      <c r="BL21" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC21" s="1">
+      <c r="BM21" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BD21" s="1">
+      <c r="BN21" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BE21" s="1">
+      <c r="BO21" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP21" s="1">
         <v>0.3</v>
       </c>
-      <c r="BF21" s="1">
+      <c r="BQ21" s="1">
         <v>0.8</v>
       </c>
-      <c r="BG21" s="1">
+      <c r="BR21" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="12">
         <v>0</v>
@@ -4871,47 +5602,80 @@
       <c r="AW22" s="12">
         <v>0</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AX22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BA22" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB22" s="1">
+      <c r="BJ22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK22" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BL22" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC22" s="1">
+      <c r="BM22" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BD22" s="1">
+      <c r="BN22" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BE22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="1">
+      <c r="BO22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG22" s="1">
+      <c r="BR22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -5058,51 +5822,84 @@
       <c r="AW23" s="12">
         <v>0</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AX23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BA23" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB23" s="1">
+      <c r="BJ23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK23" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BL23" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC23" s="1">
+      <c r="BM23" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BD23" s="1">
+      <c r="BN23" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BE23" s="1">
+      <c r="BO23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP23" s="1">
         <v>0.85</v>
       </c>
-      <c r="BF23" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG23" s="1">
+      <c r="BQ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR23" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -5245,51 +6042,84 @@
       <c r="AW24" s="12">
         <v>0</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AX24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BA24" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB24" s="1">
+      <c r="BJ24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK24" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BL24" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC24" s="1">
+      <c r="BM24" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BD24" s="1">
+      <c r="BN24" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BE24" s="1">
+      <c r="BO24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP24" s="1">
         <v>0.75</v>
       </c>
-      <c r="BF24" s="1">
+      <c r="BQ24" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BG24" s="1">
+      <c r="BR24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -5432,51 +6262,84 @@
       <c r="AW25" s="12">
         <v>0</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AX25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BA25" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB25" s="1">
+      <c r="BJ25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK25" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BL25" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC25" s="1">
+      <c r="BM25" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BD25" s="1">
+      <c r="BN25" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BE25" s="1">
+      <c r="BO25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP25" s="1">
         <v>0.9</v>
       </c>
-      <c r="BF25" s="1">
+      <c r="BQ25" s="1">
         <v>0.6</v>
       </c>
-      <c r="BG25" s="1">
+      <c r="BR25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="12">
         <v>0</v>
@@ -5515,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="12">
         <v>0</v>
@@ -5587,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="12">
         <v>0</v>
@@ -5602,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="12">
         <v>0</v>
@@ -5619,51 +6482,84 @@
       <c r="AW26" s="12">
         <v>0</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="AX26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY26" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ26" s="1">
-        <f t="shared" ref="AZ26" si="24">SUM(AF26:AJ26)</f>
-        <v>1</v>
-      </c>
-      <c r="BA26" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB26" s="1">
+      <c r="BJ26" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK26" s="1">
+        <f t="shared" ref="BK26" si="25">SUM(AK26:AO26)</f>
+        <v>1</v>
+      </c>
+      <c r="BL26" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC26" s="1">
+      <c r="BM26" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="12">
         <v>0</v>
@@ -5806,51 +6702,84 @@
       <c r="AW27" s="12">
         <v>0</v>
       </c>
-      <c r="AX27" s="1">
+      <c r="AX27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="1">
-        <f>SUM(AF27:AJ27)</f>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB27" s="1">
+      <c r="BJ27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK27" s="1">
+        <f>SUM(AK27:AO27)</f>
+        <v>0</v>
+      </c>
+      <c r="BL27" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC27" s="1">
+      <c r="BM27" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BD27" s="1">
+      <c r="BN27" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BE27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG27" s="1">
+      <c r="BO27" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C28" s="12">
         <v>0.88</v>
@@ -5940,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AG28" s="12">
         <v>0</v>
@@ -5964,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28" s="12">
         <v>0</v>
@@ -5979,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="12">
         <v>0</v>
@@ -5993,51 +6922,84 @@
       <c r="AW28" s="12">
         <v>0</v>
       </c>
-      <c r="AX28" s="1">
+      <c r="AX28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY28" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ28" s="1">
-        <f t="shared" ref="AZ28" si="25">SUM(AF28:AJ28)</f>
-        <v>1</v>
-      </c>
-      <c r="BA28" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BB28" s="1">
+      <c r="BJ28" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK28" s="1">
+        <f t="shared" ref="BK28" si="26">SUM(AK28:AO28)</f>
+        <v>1</v>
+      </c>
+      <c r="BL28" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BC28" s="1">
+      <c r="BM28" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BD28" s="1">
+      <c r="BN28" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO28" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG28" s="1">
+      <c r="BR28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C29" s="12">
         <v>0.88</v>
@@ -6127,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AG29" s="12">
         <v>0</v>
@@ -6151,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="12">
         <v>0</v>
@@ -6166,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="12">
         <v>0</v>
@@ -6180,51 +7142,84 @@
       <c r="AW29" s="12">
         <v>0</v>
       </c>
-      <c r="AX29" s="1">
-        <f t="shared" ref="AX29" si="26">SUM(C29:G29)</f>
-        <v>1</v>
-      </c>
-      <c r="AY29" s="1">
-        <f t="shared" ref="AY29" si="27">SUM(H29:L29)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ29" s="1">
-        <f t="shared" ref="AZ29" si="28">SUM(AF29:AJ29)</f>
-        <v>1</v>
-      </c>
-      <c r="BA29" s="1">
-        <f t="shared" ref="BA29" si="29">SUM(Q29:U29)</f>
-        <v>1</v>
-      </c>
-      <c r="BB29" s="1">
-        <f t="shared" ref="BB29" si="30">SUM(V29:Z29)</f>
-        <v>1</v>
-      </c>
-      <c r="BC29" s="1">
-        <f t="shared" ref="BC29" si="31">SUM(AF29:AJ29)</f>
-        <v>1</v>
-      </c>
-      <c r="BD29" s="1">
-        <f t="shared" ref="BD29" si="32">SUM(AK29:AP29)</f>
-        <v>0</v>
-      </c>
-      <c r="BE29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF29" s="1">
+      <c r="AX29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="1">
+        <f t="shared" ref="BI29" si="27">SUM(C29:G29)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ29" s="1">
+        <f t="shared" ref="BJ29" si="28">SUM(H29:L29)</f>
+        <v>1</v>
+      </c>
+      <c r="BK29" s="1">
+        <f t="shared" ref="BK29" si="29">SUM(AK29:AO29)</f>
+        <v>1</v>
+      </c>
+      <c r="BL29" s="1">
+        <f t="shared" ref="BL29" si="30">SUM(Q29:U29)</f>
+        <v>1</v>
+      </c>
+      <c r="BM29" s="1">
+        <f t="shared" ref="BM29" si="31">SUM(V29:Z29)</f>
+        <v>1</v>
+      </c>
+      <c r="BN29" s="1">
+        <f t="shared" ref="BN29" si="32">SUM(AK29:AO29)</f>
+        <v>1</v>
+      </c>
+      <c r="BO29" s="1">
+        <f t="shared" ref="BO29" si="33">SUM(AU29:BA29)</f>
+        <v>0</v>
+      </c>
+      <c r="BP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="1">
         <v>0.4</v>
       </c>
-      <c r="BG29" s="1">
+      <c r="BR29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C30" s="12">
         <v>0.88</v>
@@ -6314,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AG30" s="12">
         <v>0</v>
@@ -6338,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30" s="12">
         <v>0</v>
@@ -6353,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="12">
         <v>0</v>
@@ -6367,51 +7362,84 @@
       <c r="AW30" s="12">
         <v>0</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AX30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY30" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="1">
-        <f>SUM(AF30:AJ30)</f>
-        <v>1</v>
-      </c>
-      <c r="BA30" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BB30" s="1">
+      <c r="BJ30" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK30" s="1">
+        <f>SUM(AK30:AO30)</f>
+        <v>1</v>
+      </c>
+      <c r="BL30" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BC30" s="1">
+      <c r="BM30" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BD30" s="1">
+      <c r="BN30" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO30" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C31" s="12">
         <v>0.88</v>
@@ -6501,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AG31" s="12">
         <v>0</v>
@@ -6525,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO31" s="12">
         <v>0</v>
@@ -6540,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="12">
         <v>0</v>
@@ -6554,51 +7582,84 @@
       <c r="AW31" s="12">
         <v>0</v>
       </c>
-      <c r="AX31" s="1">
-        <f t="shared" ref="AX31" si="33">SUM(C31:G31)</f>
-        <v>1</v>
-      </c>
-      <c r="AY31" s="1">
-        <f t="shared" ref="AY31" si="34">SUM(H31:L31)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ31" s="1">
-        <f>SUM(AF31:AJ31)</f>
-        <v>1</v>
-      </c>
-      <c r="BA31" s="1">
-        <f t="shared" ref="BA31" si="35">SUM(Q31:U31)</f>
-        <v>1</v>
-      </c>
-      <c r="BB31" s="1">
-        <f t="shared" ref="BB31" si="36">SUM(V31:Z31)</f>
-        <v>1</v>
-      </c>
-      <c r="BC31" s="1">
-        <f t="shared" ref="BC31" si="37">SUM(AF31:AJ31)</f>
-        <v>1</v>
-      </c>
-      <c r="BD31" s="1">
-        <f t="shared" ref="BD31" si="38">SUM(AK31:AP31)</f>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="1">
+      <c r="AX31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="1">
+        <f t="shared" ref="BI31" si="34">SUM(C31:G31)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="1">
+        <f t="shared" ref="BJ31" si="35">SUM(H31:L31)</f>
+        <v>1</v>
+      </c>
+      <c r="BK31" s="1">
+        <f>SUM(AK31:AO31)</f>
+        <v>1</v>
+      </c>
+      <c r="BL31" s="1">
+        <f t="shared" ref="BL31" si="36">SUM(Q31:U31)</f>
+        <v>1</v>
+      </c>
+      <c r="BM31" s="1">
+        <f t="shared" ref="BM31" si="37">SUM(V31:Z31)</f>
+        <v>1</v>
+      </c>
+      <c r="BN31" s="1">
+        <f t="shared" ref="BN31" si="38">SUM(AK31:AO31)</f>
+        <v>1</v>
+      </c>
+      <c r="BO31" s="1">
+        <f t="shared" ref="BO31" si="39">SUM(AU31:BA31)</f>
+        <v>0</v>
+      </c>
+      <c r="BP31" s="1">
         <v>0.2</v>
       </c>
-      <c r="BF31" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG31" s="1">
+      <c r="BQ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C32" s="12">
         <v>0.88</v>
@@ -6688,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AG32" s="12">
         <v>0</v>
@@ -6712,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32" s="12">
         <v>0</v>
@@ -6727,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="12">
         <v>0</v>
@@ -6741,51 +7802,84 @@
       <c r="AW32" s="12">
         <v>0</v>
       </c>
-      <c r="AX32" s="1">
-        <f t="shared" ref="AX32" si="39">SUM(C32:G32)</f>
-        <v>1</v>
-      </c>
-      <c r="AY32" s="1">
-        <f t="shared" ref="AY32" si="40">SUM(H32:L32)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ32" s="1">
-        <f>SUM(AF32:AJ32)</f>
-        <v>1</v>
-      </c>
-      <c r="BA32" s="1">
-        <f t="shared" ref="BA32" si="41">SUM(Q32:U32)</f>
-        <v>1</v>
-      </c>
-      <c r="BB32" s="1">
-        <f t="shared" ref="BB32" si="42">SUM(V32:Z32)</f>
-        <v>1</v>
-      </c>
-      <c r="BC32" s="1">
-        <f t="shared" ref="BC32" si="43">SUM(AF32:AJ32)</f>
-        <v>1</v>
-      </c>
-      <c r="BD32" s="1">
-        <f t="shared" ref="BD32" si="44">SUM(AK32:AP32)</f>
-        <v>0</v>
-      </c>
-      <c r="BE32" s="1">
+      <c r="AX32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="1">
+        <f t="shared" ref="BI32" si="40">SUM(C32:G32)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="1">
+        <f t="shared" ref="BJ32" si="41">SUM(H32:L32)</f>
+        <v>1</v>
+      </c>
+      <c r="BK32" s="1">
+        <f>SUM(AK32:AO32)</f>
+        <v>1</v>
+      </c>
+      <c r="BL32" s="1">
+        <f t="shared" ref="BL32" si="42">SUM(Q32:U32)</f>
+        <v>1</v>
+      </c>
+      <c r="BM32" s="1">
+        <f t="shared" ref="BM32" si="43">SUM(V32:Z32)</f>
+        <v>1</v>
+      </c>
+      <c r="BN32" s="1">
+        <f t="shared" ref="BN32" si="44">SUM(AK32:AO32)</f>
+        <v>1</v>
+      </c>
+      <c r="BO32" s="1">
+        <f t="shared" ref="BO32" si="45">SUM(AU32:BA32)</f>
+        <v>0</v>
+      </c>
+      <c r="BP32" s="1">
         <v>0.2</v>
       </c>
-      <c r="BF32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG32" s="1">
+      <c r="BQ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C33" s="12">
         <v>0.88</v>
@@ -6875,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AG33" s="12">
         <v>0</v>
@@ -6899,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33" s="12">
         <v>0</v>
@@ -6914,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="12">
         <v>0</v>
@@ -6928,51 +8022,84 @@
       <c r="AW33" s="12">
         <v>0</v>
       </c>
-      <c r="AX33" s="1">
-        <f t="shared" ref="AX33:AX34" si="45">SUM(C33:G33)</f>
-        <v>1</v>
-      </c>
-      <c r="AY33" s="1">
-        <f t="shared" ref="AY33:AY34" si="46">SUM(H33:L33)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ33" s="1">
-        <f>SUM(AF33:AJ33)</f>
-        <v>1</v>
-      </c>
-      <c r="BA33" s="1">
-        <f t="shared" ref="BA33:BA34" si="47">SUM(Q33:U33)</f>
-        <v>1</v>
-      </c>
-      <c r="BB33" s="1">
-        <f t="shared" ref="BB33:BB34" si="48">SUM(V33:Z33)</f>
-        <v>1</v>
-      </c>
-      <c r="BC33" s="1">
-        <f t="shared" ref="BC33:BC34" si="49">SUM(AF33:AJ33)</f>
-        <v>1</v>
-      </c>
-      <c r="BD33" s="1">
-        <f t="shared" ref="BD33:BD34" si="50">SUM(AK33:AP33)</f>
-        <v>0</v>
-      </c>
-      <c r="BE33" s="1">
+      <c r="AX33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="1">
+        <f t="shared" ref="BI33:BI34" si="46">SUM(C33:G33)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ33" s="1">
+        <f t="shared" ref="BJ33:BJ34" si="47">SUM(H33:L33)</f>
+        <v>1</v>
+      </c>
+      <c r="BK33" s="1">
+        <f>SUM(AK33:AO33)</f>
+        <v>1</v>
+      </c>
+      <c r="BL33" s="1">
+        <f t="shared" ref="BL33:BL34" si="48">SUM(Q33:U33)</f>
+        <v>1</v>
+      </c>
+      <c r="BM33" s="1">
+        <f t="shared" ref="BM33:BM34" si="49">SUM(V33:Z33)</f>
+        <v>1</v>
+      </c>
+      <c r="BN33" s="1">
+        <f t="shared" ref="BN33:BN34" si="50">SUM(AK33:AO33)</f>
+        <v>1</v>
+      </c>
+      <c r="BO33" s="1">
+        <f t="shared" ref="BO33:BO34" si="51">SUM(AU33:BA33)</f>
+        <v>0</v>
+      </c>
+      <c r="BP33" s="1">
         <v>0.2</v>
       </c>
-      <c r="BF33" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG33" s="1">
+      <c r="BQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C34" s="12">
         <v>0.88</v>
@@ -7062,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AG34" s="12">
         <v>0</v>
@@ -7086,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO34" s="12">
         <v>0</v>
@@ -7101,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="12">
         <v>0</v>
@@ -7115,425 +8242,524 @@
       <c r="AW34" s="12">
         <v>0</v>
       </c>
-      <c r="AX34" s="1">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="AY34" s="1">
+      <c r="AX34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="1">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="AZ34" s="1">
-        <f>SUM(AF34:AJ34)</f>
-        <v>1</v>
-      </c>
-      <c r="BA34" s="1">
+      <c r="BJ34" s="1">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="BB34" s="1">
+      <c r="BK34" s="1">
+        <f>SUM(AK34:AO34)</f>
+        <v>1</v>
+      </c>
+      <c r="BL34" s="1">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="BC34" s="1">
+      <c r="BM34" s="1">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="BD34" s="1">
+      <c r="BN34" s="1">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO34" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BP34" s="1">
         <v>0.2</v>
       </c>
-      <c r="BF34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG34" s="1">
+      <c r="BQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>0</v>
+      </c>
+      <c r="R35" s="14">
+        <v>0</v>
+      </c>
+      <c r="S35" s="14">
+        <v>0</v>
+      </c>
+      <c r="T35" s="14">
+        <v>0</v>
+      </c>
+      <c r="U35" s="14">
+        <v>0</v>
+      </c>
+      <c r="V35" s="14">
+        <v>0</v>
+      </c>
+      <c r="W35" s="14">
+        <v>0</v>
+      </c>
+      <c r="X35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="1">
+        <f>SUM(C35:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="1">
+        <f>SUM(H35:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="BK35" s="1">
+        <f t="shared" ref="BK35" si="52">SUM(AK35:AO35)</f>
+        <v>0</v>
+      </c>
+      <c r="BL35" s="1">
+        <f>SUM(Q35:U35)</f>
+        <v>0</v>
+      </c>
+      <c r="BM35" s="1">
+        <f>SUM(V35:Z35)</f>
+        <v>0</v>
+      </c>
+      <c r="BN35" s="1">
+        <f>SUM(AK35:AO35)</f>
+        <v>0</v>
+      </c>
+      <c r="BO35" s="1">
+        <f>SUM(AU35:BA35)</f>
+        <v>0</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="22"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="14">
-        <v>0</v>
-      </c>
-      <c r="D35" s="14">
-        <v>0</v>
-      </c>
-      <c r="E35" s="14">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14">
-        <v>0</v>
-      </c>
-      <c r="J35" s="14">
-        <v>0</v>
-      </c>
-      <c r="K35" s="14">
-        <v>0</v>
-      </c>
-      <c r="L35" s="14">
-        <v>0</v>
-      </c>
-      <c r="M35" s="14">
-        <v>0</v>
-      </c>
-      <c r="N35" s="14">
-        <v>0</v>
-      </c>
-      <c r="O35" s="14">
-        <v>0</v>
-      </c>
-      <c r="P35" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>0</v>
-      </c>
-      <c r="R35" s="14">
-        <v>0</v>
-      </c>
-      <c r="S35" s="14">
-        <v>0</v>
-      </c>
-      <c r="T35" s="14">
-        <v>0</v>
-      </c>
-      <c r="U35" s="14">
-        <v>0</v>
-      </c>
-      <c r="V35" s="14">
-        <v>0</v>
-      </c>
-      <c r="W35" s="14">
-        <v>0</v>
-      </c>
-      <c r="X35" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="1">
-        <f>SUM(C35:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="AY35" s="1">
-        <f>SUM(H35:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="1">
-        <f t="shared" ref="AZ35" si="51">SUM(AF35:AJ35)</f>
-        <v>0</v>
-      </c>
-      <c r="BA35" s="1">
-        <f>SUM(Q35:U35)</f>
-        <v>0</v>
-      </c>
-      <c r="BB35" s="1">
-        <f>SUM(V35:Z35)</f>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="1">
-        <f>SUM(AF35:AJ35)</f>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="1">
-        <f>SUM(AK35:AP35)</f>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="1">
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>0</v>
+      </c>
+      <c r="N36" s="12">
+        <v>0</v>
+      </c>
+      <c r="O36" s="12">
+        <v>0</v>
+      </c>
+      <c r="P36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>0</v>
+      </c>
+      <c r="R36" s="12">
+        <v>0</v>
+      </c>
+      <c r="S36" s="12">
+        <v>0</v>
+      </c>
+      <c r="T36" s="12">
+        <v>0</v>
+      </c>
+      <c r="U36" s="12">
+        <v>0</v>
+      </c>
+      <c r="V36" s="12">
+        <v>0</v>
+      </c>
+      <c r="W36" s="12">
+        <v>0</v>
+      </c>
+      <c r="X36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="1">
+        <f>SUM(C36:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="1">
+        <f>SUM(H36:L36)</f>
+        <v>0</v>
+      </c>
+      <c r="BK36" s="1">
+        <f t="shared" ref="BK36:BK37" si="53">SUM(AK36:AO36)</f>
+        <v>0</v>
+      </c>
+      <c r="BL36" s="1">
+        <f>SUM(Q36:U36)</f>
+        <v>0</v>
+      </c>
+      <c r="BM36" s="1">
+        <f>SUM(V36:Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="BN36" s="1">
+        <f>SUM(AK36:AO36)</f>
+        <v>0</v>
+      </c>
+      <c r="BO36" s="1">
+        <f>SUM(AU36:BA36)</f>
+        <v>0</v>
+      </c>
+      <c r="BP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <f t="shared" si="21"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="12">
-        <v>0</v>
-      </c>
-      <c r="D36" s="12">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0</v>
-      </c>
-      <c r="F36" s="12">
-        <v>0</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-      <c r="H36" s="12">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0</v>
-      </c>
-      <c r="J36" s="12">
-        <v>0</v>
-      </c>
-      <c r="K36" s="12">
-        <v>0</v>
-      </c>
-      <c r="L36" s="12">
-        <v>0</v>
-      </c>
-      <c r="M36" s="12">
-        <v>0</v>
-      </c>
-      <c r="N36" s="12">
-        <v>0</v>
-      </c>
-      <c r="O36" s="12">
-        <v>0</v>
-      </c>
-      <c r="P36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="12">
-        <v>0</v>
-      </c>
-      <c r="R36" s="12">
-        <v>0</v>
-      </c>
-      <c r="S36" s="12">
-        <v>0</v>
-      </c>
-      <c r="T36" s="12">
-        <v>0</v>
-      </c>
-      <c r="U36" s="12">
-        <v>0</v>
-      </c>
-      <c r="V36" s="12">
-        <v>0</v>
-      </c>
-      <c r="W36" s="12">
-        <v>0</v>
-      </c>
-      <c r="X36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="1">
-        <f>SUM(C36:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="AY36" s="1">
-        <f>SUM(H36:L36)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="1">
-        <f t="shared" ref="AZ36:AZ37" si="52">SUM(AF36:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="BA36" s="1">
-        <f>SUM(Q36:U36)</f>
-        <v>0</v>
-      </c>
-      <c r="BB36" s="1">
-        <f>SUM(V36:Z36)</f>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="1">
-        <f>SUM(AF36:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="BD36" s="1">
-        <f>SUM(AK36:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF36" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="12">
         <v>0.88</v>
@@ -7644,31 +8870,35 @@
         <v>0</v>
       </c>
       <c r="AK37" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AL37" s="12">
         <v>0</v>
       </c>
       <c r="AM37" s="12">
-        <v>0</v>
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AN37" s="12">
-        <v>0</v>
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AO37" s="12">
         <v>0</v>
       </c>
       <c r="AP37" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AQ37" s="12">
         <v>0</v>
       </c>
       <c r="AR37" s="12">
-        <v>0</v>
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AS37" s="12">
-        <v>0</v>
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AT37" s="12">
         <v>0</v>
@@ -7682,51 +8912,84 @@
       <c r="AW37" s="12">
         <v>0</v>
       </c>
-      <c r="AX37" s="1">
+      <c r="AX37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="1">
         <f>SUM(C37:G37)</f>
         <v>1</v>
       </c>
-      <c r="AY37" s="1">
+      <c r="BJ37" s="1">
         <f>SUM(H37:L37)</f>
         <v>1</v>
       </c>
-      <c r="AZ37" s="1">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="BA37" s="1">
+      <c r="BK37" s="1">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="BL37" s="1">
         <f>SUM(Q37:U37)</f>
         <v>0</v>
       </c>
-      <c r="BB37" s="1">
+      <c r="BM37" s="1">
         <f>SUM(V37:Z37)</f>
         <v>0</v>
       </c>
-      <c r="BC37" s="1">
-        <f>SUM(AF37:AJ37)</f>
-        <v>1</v>
-      </c>
-      <c r="BD37" s="1">
-        <f>SUM(AK37:AP37)</f>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF37" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG37" s="1">
+      <c r="BN37" s="1">
+        <f>SUM(AK37:AO37)</f>
+        <v>1</v>
+      </c>
+      <c r="BO37" s="1">
+        <f>SUM(AU37:BA37)</f>
+        <v>0</v>
+      </c>
+      <c r="BP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="12">
         <v>0</v>
@@ -7837,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38" s="12">
         <v>0</v>
@@ -7852,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS38" s="12">
         <v>0</v>
@@ -7869,51 +9132,84 @@
       <c r="AW38" s="12">
         <v>0</v>
       </c>
-      <c r="AX38" s="1">
+      <c r="AX38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH38" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="1">
         <f>SUM(C38:G38)</f>
         <v>1</v>
       </c>
-      <c r="AY38" s="1">
+      <c r="BJ38" s="1">
         <f>SUM(H38:L38)</f>
         <v>1</v>
       </c>
-      <c r="AZ38" s="1">
-        <f t="shared" ref="AZ38:AZ39" si="53">SUM(AF38:AJ38)</f>
-        <v>1</v>
-      </c>
-      <c r="BA38" s="1">
+      <c r="BK38" s="1">
+        <f t="shared" ref="BK38:BK39" si="54">SUM(AK38:AO38)</f>
+        <v>1</v>
+      </c>
+      <c r="BL38" s="1">
         <f>SUM(Q38:U38)</f>
         <v>0</v>
       </c>
-      <c r="BB38" s="1">
+      <c r="BM38" s="1">
         <f>SUM(V38:Z38)</f>
         <v>0</v>
       </c>
-      <c r="BC38" s="1">
-        <f>SUM(AF38:AJ38)</f>
-        <v>1</v>
-      </c>
-      <c r="BD38" s="1">
-        <f>SUM(AK38:AP38)</f>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF38" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG38" s="1">
+      <c r="BN38" s="1">
+        <f>SUM(AK38:AO38)</f>
+        <v>1</v>
+      </c>
+      <c r="BO38" s="1">
+        <f>SUM(AU38:BA38)</f>
+        <v>0</v>
+      </c>
+      <c r="BP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C39" s="12">
         <v>0</v>
@@ -8056,254 +9352,537 @@
       <c r="AW39" s="12">
         <v>0</v>
       </c>
-      <c r="AX39" s="1">
-        <f t="shared" ref="AX39" si="54">SUM(C39:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="AY39" s="1">
-        <f t="shared" ref="AY39" si="55">SUM(H39:L39)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="1">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="BA39" s="1">
-        <f t="shared" ref="BA39" si="56">SUM(Q39:U39)</f>
-        <v>0</v>
-      </c>
-      <c r="BB39" s="1">
-        <f t="shared" ref="BB39" si="57">SUM(V39:Z39)</f>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="1">
-        <f t="shared" ref="BC39" si="58">SUM(AF39:AJ39)</f>
-        <v>0</v>
-      </c>
-      <c r="BD39" s="1">
-        <f t="shared" ref="BD39" si="59">SUM(AK39:AP39)</f>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="1">
+      <c r="AX39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH39" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="1">
+        <f t="shared" ref="BI39" si="55">SUM(C39:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="1">
+        <f t="shared" ref="BJ39" si="56">SUM(H39:L39)</f>
+        <v>0</v>
+      </c>
+      <c r="BK39" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BL39" s="1">
+        <f t="shared" ref="BL39" si="57">SUM(Q39:U39)</f>
+        <v>0</v>
+      </c>
+      <c r="BM39" s="1">
+        <f t="shared" ref="BM39" si="58">SUM(V39:Z39)</f>
+        <v>0</v>
+      </c>
+      <c r="BN39" s="1">
+        <f t="shared" ref="BN39" si="59">SUM(AK39:AO39)</f>
+        <v>0</v>
+      </c>
+      <c r="BO39" s="1">
+        <f t="shared" ref="BO39" si="60">SUM(AU39:BA39)</f>
+        <v>0</v>
+      </c>
+      <c r="BP39" s="1">
         <v>0.2</v>
       </c>
-      <c r="BF39" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG39" s="1">
+      <c r="BQ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14">
+        <v>0</v>
+      </c>
+      <c r="P40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>0</v>
+      </c>
+      <c r="R40" s="14">
+        <v>0</v>
+      </c>
+      <c r="S40" s="14">
+        <v>0</v>
+      </c>
+      <c r="T40" s="14">
+        <v>0</v>
+      </c>
+      <c r="U40" s="14">
+        <v>0</v>
+      </c>
+      <c r="V40" s="14">
+        <v>0</v>
+      </c>
+      <c r="W40" s="14">
+        <v>0</v>
+      </c>
+      <c r="X40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="1">
+        <f t="shared" ref="BI40" si="61">SUM(C40:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="1">
+        <f t="shared" ref="BJ40" si="62">SUM(H40:L40)</f>
+        <v>0</v>
+      </c>
+      <c r="BK40" s="1">
+        <f t="shared" ref="BK40" si="63">SUM(AK40:AO40)</f>
+        <v>0</v>
+      </c>
+      <c r="BL40" s="1">
+        <f t="shared" ref="BL40" si="64">SUM(Q40:U40)</f>
+        <v>0</v>
+      </c>
+      <c r="BM40" s="1">
+        <f t="shared" ref="BM40" si="65">SUM(V40:Z40)</f>
+        <v>0</v>
+      </c>
+      <c r="BN40" s="1">
+        <f t="shared" ref="BN40" si="66">SUM(AK40:AO40)</f>
+        <v>0</v>
+      </c>
+      <c r="BO40" s="1">
+        <f t="shared" ref="BO40" si="67">SUM(AU40:BA40)</f>
+        <v>0</v>
+      </c>
+      <c r="BP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="14">
-        <v>0</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14">
-        <v>0</v>
-      </c>
-      <c r="J40" s="14">
-        <v>0</v>
-      </c>
-      <c r="K40" s="14">
-        <v>0</v>
-      </c>
-      <c r="L40" s="14">
-        <v>0</v>
-      </c>
-      <c r="M40" s="14">
-        <v>0</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-      <c r="P40" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>0</v>
-      </c>
-      <c r="R40" s="14">
-        <v>0</v>
-      </c>
-      <c r="S40" s="14">
-        <v>0</v>
-      </c>
-      <c r="T40" s="14">
-        <v>0</v>
-      </c>
-      <c r="U40" s="14">
-        <v>0</v>
-      </c>
-      <c r="V40" s="14">
-        <v>0</v>
-      </c>
-      <c r="W40" s="14">
-        <v>0</v>
-      </c>
-      <c r="X40" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="1">
-        <f t="shared" ref="AX40" si="60">SUM(C40:G40)</f>
-        <v>0</v>
-      </c>
-      <c r="AY40" s="1">
-        <f t="shared" ref="AY40" si="61">SUM(H40:L40)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="1">
-        <f t="shared" ref="AZ40" si="62">SUM(AF40:AJ40)</f>
-        <v>0</v>
-      </c>
-      <c r="BA40" s="1">
-        <f t="shared" ref="BA40" si="63">SUM(Q40:U40)</f>
-        <v>0</v>
-      </c>
-      <c r="BB40" s="1">
-        <f t="shared" ref="BB40" si="64">SUM(V40:Z40)</f>
-        <v>0</v>
-      </c>
-      <c r="BC40" s="1">
-        <f t="shared" ref="BC40" si="65">SUM(AF40:AJ40)</f>
-        <v>0</v>
-      </c>
-      <c r="BD40" s="1">
-        <f t="shared" ref="BD40" si="66">SUM(AK40:AP40)</f>
-        <v>0</v>
-      </c>
-      <c r="BE40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG40" s="1">
-        <v>0</v>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>1</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12">
+        <v>0</v>
+      </c>
+      <c r="S41" s="12">
+        <v>1</v>
+      </c>
+      <c r="T41" s="12">
+        <v>0</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="12">
+        <v>0</v>
+      </c>
+      <c r="W41" s="12">
+        <v>0</v>
+      </c>
+      <c r="X41" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI41" s="1">
+        <f t="shared" ref="BI41" si="68">SUM(C41:G41)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ41" s="1">
+        <f t="shared" ref="BJ41" si="69">SUM(H41:L41)</f>
+        <v>1</v>
+      </c>
+      <c r="BK41" s="1">
+        <f>SUM(AK41:AO41)</f>
+        <v>1</v>
+      </c>
+      <c r="BL41" s="1">
+        <f t="shared" ref="BL41" si="70">SUM(Q41:U41)</f>
+        <v>1</v>
+      </c>
+      <c r="BM41" s="1">
+        <f t="shared" ref="BM41" si="71">SUM(V41:Z41)</f>
+        <v>1</v>
+      </c>
+      <c r="BN41" s="1">
+        <f t="shared" ref="BN41" si="72">SUM(AK41:AO41)</f>
+        <v>1</v>
+      </c>
+      <c r="BO41" s="1">
+        <f t="shared" ref="BO41" si="73">SUM(AU41:BA41)</f>
+        <v>0</v>
+      </c>
+      <c r="BP41" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="BQ41" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="BR41" s="1">
+        <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AX12:BD12 AX30:BD30 AX3:BD8 AX16:BD16 AX17:BD28 AY2:BD2" formulaRange="1"/>
+    <ignoredError sqref="BI12:BO12 BI30:BO30 BI3:BO8 BI16:BO16 BI17:BO28" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>